--- a/cosmetics_prices.xlsx
+++ b/cosmetics_prices.xlsx
@@ -8,29 +8,33 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Changes" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Template" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 27 13_30_48" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 25 08_36_03" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 24 08_21_50" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 23 18_36_50" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 23 07_47_12" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 22 18_43_01" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 22 08_20_31" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 21 08_28_48" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 20 19_53_57" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 20 08_57_34" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 19 19_04_31" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 19 06_21_21" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 18 19_23_47" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 18 08_51_18" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 17 08_34_25" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 16 23_47_40" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 15 12_07_23" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 15 12_05_55" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 15 11_58_55" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 15 11_43_46" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 15 11_36_52" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mar 03 08_29_42" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mar 02 07_56_10" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mar 01 06_53_09" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 29 07_13_45" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 27 13_30_48" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 25 08_36_03" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 24 08_21_50" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 23 18_36_50" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 23 07_47_12" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 22 18_43_01" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 22 08_20_31" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 21 08_28_48" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 20 19_53_57" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 20 08_57_34" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 19 19_04_31" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 19 06_21_21" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 18 19_23_47" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 18 08_51_18" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 17 08_34_25" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 16 23_47_40" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 15 12_07_23" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 15 12_05_55" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 15 11_58_55" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 15 11_43_46" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feb 15 11_36_52" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1" sheetId="29" state="visible" r:id="rId29"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1291,12 +1295,12 @@
       <c r="B1" s="43" t="n"/>
       <c r="C1" s="24" t="inlineStr">
         <is>
-          <t>Feb 25 08_36_03</t>
+          <t>Mar 02 07_56_10</t>
         </is>
       </c>
       <c r="D1" s="25" t="inlineStr">
         <is>
-          <t>Feb 27 13_30_48</t>
+          <t>Mar 03 08_29_42</t>
         </is>
       </c>
     </row>
@@ -1770,12 +1774,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>89,5</t>
+          <t>82,24</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>295,65</t>
+          <t>271,39</t>
         </is>
       </c>
       <c r="D4" s="21">
@@ -1791,12 +1795,12 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>23,87</t>
+          <t>20,57</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>45,56</t>
+          <t>41,83</t>
         </is>
       </c>
       <c r="D5" s="21">
@@ -1812,12 +1816,12 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="D6" s="21">
@@ -1833,12 +1837,12 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="D7" s="21">
@@ -1854,12 +1858,12 @@
       </c>
       <c r="B8" s="31" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="C8" s="31" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="D8" s="32">
@@ -1875,7 +1879,7 @@
       </c>
       <c r="B9" s="28" t="inlineStr">
         <is>
-          <t>1109,37</t>
+          <t>1028,32</t>
         </is>
       </c>
       <c r="C9" s="28" t="inlineStr">
@@ -1896,12 +1900,12 @@
       </c>
       <c r="B10" s="11" t="inlineStr">
         <is>
-          <t>30,43</t>
+          <t>29,85</t>
         </is>
       </c>
       <c r="C10" s="11" t="inlineStr">
         <is>
-          <t>46,86</t>
+          <t>28,82</t>
         </is>
       </c>
       <c r="D10" s="21">
@@ -1917,12 +1921,12 @@
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
-          <t>10,95</t>
+          <t>10,73</t>
         </is>
       </c>
       <c r="C11" s="11" t="inlineStr">
         <is>
-          <t>15,05</t>
+          <t>13,81</t>
         </is>
       </c>
       <c r="D11" s="21">
@@ -1938,12 +1942,12 @@
       </c>
       <c r="B12" s="11" t="inlineStr">
         <is>
-          <t>30,43</t>
+          <t>29,85</t>
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr">
         <is>
-          <t>46,86</t>
+          <t>28,82</t>
         </is>
       </c>
       <c r="D12" s="21">
@@ -1959,12 +1963,12 @@
       </c>
       <c r="B13" s="11" t="inlineStr">
         <is>
-          <t>30,43</t>
+          <t>29,85</t>
         </is>
       </c>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>46,86</t>
+          <t>28,82</t>
         </is>
       </c>
       <c r="D13" s="21">
@@ -1980,12 +1984,12 @@
       </c>
       <c r="B14" s="11" t="inlineStr">
         <is>
-          <t>30,43</t>
+          <t>29,85</t>
         </is>
       </c>
       <c r="C14" s="11" t="inlineStr">
         <is>
-          <t>46,86</t>
+          <t>28,82</t>
         </is>
       </c>
       <c r="D14" s="21">
@@ -2001,12 +2005,12 @@
       </c>
       <c r="B15" s="11" t="inlineStr">
         <is>
-          <t>30,43</t>
+          <t>29,85</t>
         </is>
       </c>
       <c r="C15" s="11" t="inlineStr">
         <is>
-          <t>46,86</t>
+          <t>28,82</t>
         </is>
       </c>
       <c r="D15" s="21">
@@ -2022,12 +2026,12 @@
       </c>
       <c r="B16" s="11" t="inlineStr">
         <is>
-          <t>7,8</t>
+          <t>7,64</t>
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr">
         <is>
-          <t>9,95</t>
+          <t>9,14</t>
         </is>
       </c>
       <c r="D16" s="21">
@@ -2043,12 +2047,12 @@
       </c>
       <c r="B17" s="11" t="inlineStr">
         <is>
-          <t>30,43</t>
+          <t>29,85</t>
         </is>
       </c>
       <c r="C17" s="11" t="inlineStr">
         <is>
-          <t>46,86</t>
+          <t>28,82</t>
         </is>
       </c>
       <c r="D17" s="21">
@@ -2064,12 +2068,12 @@
       </c>
       <c r="B18" s="31" t="inlineStr">
         <is>
-          <t>22,5</t>
+          <t>21,58</t>
         </is>
       </c>
       <c r="C18" s="31" t="inlineStr">
         <is>
-          <t>29,45</t>
+          <t>27,03</t>
         </is>
       </c>
       <c r="D18" s="32">
@@ -2085,12 +2089,12 @@
       </c>
       <c r="B19" s="28" t="inlineStr">
         <is>
-          <t>20,92</t>
+          <t>24,85</t>
         </is>
       </c>
       <c r="C19" s="28" t="inlineStr">
         <is>
-          <t>25,71</t>
+          <t>27,92</t>
         </is>
       </c>
       <c r="D19" s="33">
@@ -2106,12 +2110,12 @@
       </c>
       <c r="B20" s="11" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="C20" s="11" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="D20" s="34">
@@ -2127,12 +2131,12 @@
       </c>
       <c r="B21" s="11" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="C21" s="11" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="D21" s="34">
@@ -2225,12 +2229,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>87,63</t>
+          <t>83,64</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>305,06</t>
+          <t>273,2</t>
         </is>
       </c>
       <c r="D4" s="21">
@@ -2246,12 +2250,12 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>23,37</t>
+          <t>20,92</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>47,01</t>
+          <t>42,1</t>
         </is>
       </c>
       <c r="D5" s="21">
@@ -2267,12 +2271,12 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>4,32</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="D6" s="21">
@@ -2288,12 +2292,12 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>4,68</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="D7" s="21">
@@ -2309,12 +2313,12 @@
       </c>
       <c r="B8" s="31" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="C8" s="31" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="D8" s="32">
@@ -2330,7 +2334,7 @@
       </c>
       <c r="B9" s="28" t="inlineStr">
         <is>
-          <t>1168,4</t>
+          <t>1045,91</t>
         </is>
       </c>
       <c r="C9" s="28" t="inlineStr">
@@ -2351,12 +2355,12 @@
       </c>
       <c r="B10" s="11" t="inlineStr">
         <is>
-          <t>29,79</t>
+          <t>30,36</t>
         </is>
       </c>
       <c r="C10" s="11" t="inlineStr">
         <is>
-          <t>45,3</t>
+          <t>28,89</t>
         </is>
       </c>
       <c r="D10" s="21">
@@ -2372,12 +2376,12 @@
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
-          <t>10,72</t>
+          <t>10,92</t>
         </is>
       </c>
       <c r="C11" s="11" t="inlineStr">
         <is>
-          <t>15,53</t>
+          <t>13,9</t>
         </is>
       </c>
       <c r="D11" s="21">
@@ -2393,12 +2397,12 @@
       </c>
       <c r="B12" s="11" t="inlineStr">
         <is>
-          <t>29,79</t>
+          <t>30,36</t>
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr">
         <is>
-          <t>45,3</t>
+          <t>28,89</t>
         </is>
       </c>
       <c r="D12" s="21">
@@ -2414,12 +2418,12 @@
       </c>
       <c r="B13" s="11" t="inlineStr">
         <is>
-          <t>29,79</t>
+          <t>30,36</t>
         </is>
       </c>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>45,3</t>
+          <t>28,89</t>
         </is>
       </c>
       <c r="D13" s="21">
@@ -2435,12 +2439,12 @@
       </c>
       <c r="B14" s="11" t="inlineStr">
         <is>
-          <t>29,79</t>
+          <t>30,36</t>
         </is>
       </c>
       <c r="C14" s="11" t="inlineStr">
         <is>
-          <t>45,3</t>
+          <t>28,89</t>
         </is>
       </c>
       <c r="D14" s="21">
@@ -2456,12 +2460,12 @@
       </c>
       <c r="B15" s="11" t="inlineStr">
         <is>
-          <t>29,79</t>
+          <t>30,36</t>
         </is>
       </c>
       <c r="C15" s="11" t="inlineStr">
         <is>
-          <t>45,3</t>
+          <t>28,89</t>
         </is>
       </c>
       <c r="D15" s="21">
@@ -2477,12 +2481,12 @@
       </c>
       <c r="B16" s="11" t="inlineStr">
         <is>
-          <t>7,63</t>
+          <t>7,77</t>
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr">
         <is>
-          <t>10,27</t>
+          <t>9,2</t>
         </is>
       </c>
       <c r="D16" s="21">
@@ -2498,12 +2502,12 @@
       </c>
       <c r="B17" s="11" t="inlineStr">
         <is>
-          <t>29,79</t>
+          <t>30,36</t>
         </is>
       </c>
       <c r="C17" s="11" t="inlineStr">
         <is>
-          <t>45,3</t>
+          <t>28,89</t>
         </is>
       </c>
       <c r="D17" s="21">
@@ -2519,12 +2523,12 @@
       </c>
       <c r="B18" s="31" t="inlineStr">
         <is>
-          <t>22,16</t>
+          <t>21,95</t>
         </is>
       </c>
       <c r="C18" s="31" t="inlineStr">
         <is>
-          <t>30,38</t>
+          <t>27,21</t>
         </is>
       </c>
       <c r="D18" s="32">
@@ -2540,12 +2544,12 @@
       </c>
       <c r="B19" s="28" t="inlineStr">
         <is>
-          <t>20,49</t>
+          <t>25,28</t>
         </is>
       </c>
       <c r="C19" s="28" t="inlineStr">
         <is>
-          <t>26,53</t>
+          <t>28,11</t>
         </is>
       </c>
       <c r="D19" s="33">
@@ -2561,12 +2565,12 @@
       </c>
       <c r="B20" s="11" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="C20" s="11" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="D20" s="34">
@@ -2582,12 +2586,12 @@
       </c>
       <c r="B21" s="11" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="C21" s="11" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="D21" s="34">
@@ -2680,12 +2684,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>87,11</t>
+          <t>88,77</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>304,42</t>
+          <t>280,19</t>
         </is>
       </c>
       <c r="D4" s="21">
@@ -2701,12 +2705,12 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>23,23</t>
+          <t>20,92</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>46,92</t>
+          <t>43,18</t>
         </is>
       </c>
       <c r="D5" s="21">
@@ -2722,12 +2726,12 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr">
         <is>
-          <t>4,09</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="D6" s="21">
@@ -2743,12 +2747,12 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="D7" s="21">
@@ -2764,12 +2768,12 @@
       </c>
       <c r="B8" s="31" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="C8" s="31" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="D8" s="32">
@@ -2785,7 +2789,7 @@
       </c>
       <c r="B9" s="28" t="inlineStr">
         <is>
-          <t>1167,31</t>
+          <t>777,13</t>
         </is>
       </c>
       <c r="C9" s="28" t="inlineStr">
@@ -2806,12 +2810,12 @@
       </c>
       <c r="B10" s="11" t="inlineStr">
         <is>
-          <t>29,62</t>
+          <t>30,52</t>
         </is>
       </c>
       <c r="C10" s="11" t="inlineStr">
         <is>
-          <t>44,73</t>
+          <t>42,28</t>
         </is>
       </c>
       <c r="D10" s="21">
@@ -2827,12 +2831,12 @@
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
-          <t>11,43</t>
+          <t>10,92</t>
         </is>
       </c>
       <c r="C11" s="11" t="inlineStr">
         <is>
-          <t>15,49</t>
+          <t>14,26</t>
         </is>
       </c>
       <c r="D11" s="21">
@@ -2848,12 +2852,12 @@
       </c>
       <c r="B12" s="11" t="inlineStr">
         <is>
-          <t>29,62</t>
+          <t>30,52</t>
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr">
         <is>
-          <t>44,73</t>
+          <t>42,28</t>
         </is>
       </c>
       <c r="D12" s="21">
@@ -2869,12 +2873,12 @@
       </c>
       <c r="B13" s="11" t="inlineStr">
         <is>
-          <t>29,62</t>
+          <t>30,52</t>
         </is>
       </c>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>44,73</t>
+          <t>42,28</t>
         </is>
       </c>
       <c r="D13" s="21">
@@ -2890,12 +2894,12 @@
       </c>
       <c r="B14" s="11" t="inlineStr">
         <is>
-          <t>29,62</t>
+          <t>30,52</t>
         </is>
       </c>
       <c r="C14" s="11" t="inlineStr">
         <is>
-          <t>44,73</t>
+          <t>42,28</t>
         </is>
       </c>
       <c r="D14" s="21">
@@ -2911,12 +2915,12 @@
       </c>
       <c r="B15" s="11" t="inlineStr">
         <is>
-          <t>29,62</t>
+          <t>30,52</t>
         </is>
       </c>
       <c r="C15" s="11" t="inlineStr">
         <is>
-          <t>44,73</t>
+          <t>42,28</t>
         </is>
       </c>
       <c r="D15" s="21">
@@ -2932,12 +2936,12 @@
       </c>
       <c r="B16" s="11" t="inlineStr">
         <is>
-          <t>7,59</t>
+          <t>7,77</t>
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr">
         <is>
-          <t>10,25</t>
+          <t>9,43</t>
         </is>
       </c>
       <c r="D16" s="21">
@@ -2953,12 +2957,12 @@
       </c>
       <c r="B17" s="11" t="inlineStr">
         <is>
-          <t>29,62</t>
+          <t>30,52</t>
         </is>
       </c>
       <c r="C17" s="11" t="inlineStr">
         <is>
-          <t>44,73</t>
+          <t>42,28</t>
         </is>
       </c>
       <c r="D17" s="21">
@@ -2974,12 +2978,12 @@
       </c>
       <c r="B18" s="31" t="inlineStr">
         <is>
-          <t>22,03</t>
+          <t>21,96</t>
         </is>
       </c>
       <c r="C18" s="31" t="inlineStr">
         <is>
-          <t>30,32</t>
+          <t>27,91</t>
         </is>
       </c>
       <c r="D18" s="32">
@@ -2995,12 +2999,12 @@
       </c>
       <c r="B19" s="28" t="inlineStr">
         <is>
-          <t>20,36</t>
+          <t>20,86</t>
         </is>
       </c>
       <c r="C19" s="28" t="inlineStr">
         <is>
-          <t>26,47</t>
+          <t>28,65</t>
         </is>
       </c>
       <c r="D19" s="33">
@@ -3016,12 +3020,12 @@
       </c>
       <c r="B20" s="11" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="C20" s="11" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="D20" s="34">
@@ -3037,12 +3041,12 @@
       </c>
       <c r="B21" s="11" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="C21" s="11" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="D21" s="34">
@@ -3135,12 +3139,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>86,84</t>
+          <t>87,53</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>306,85</t>
+          <t>278,15</t>
         </is>
       </c>
       <c r="D4" s="21">
@@ -3156,12 +3160,12 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>23,16</t>
+          <t>20,63</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>47,29</t>
+          <t>42,87</t>
         </is>
       </c>
       <c r="D5" s="21">
@@ -3177,12 +3181,12 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>4,34</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="D6" s="21">
@@ -3198,12 +3202,12 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>4,71</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="D7" s="21">
@@ -3219,12 +3223,12 @@
       </c>
       <c r="B8" s="31" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="C8" s="31" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="D8" s="32">
@@ -3240,7 +3244,7 @@
       </c>
       <c r="B9" s="28" t="inlineStr">
         <is>
-          <t>1309,21</t>
+          <t>766,26</t>
         </is>
       </c>
       <c r="C9" s="28" t="inlineStr">
@@ -3261,12 +3265,12 @@
       </c>
       <c r="B10" s="11" t="inlineStr">
         <is>
-          <t>29,53</t>
+          <t>29,91</t>
         </is>
       </c>
       <c r="C10" s="11" t="inlineStr">
         <is>
-          <t>51,37</t>
+          <t>44,18</t>
         </is>
       </c>
       <c r="D10" s="21">
@@ -3282,12 +3286,12 @@
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
-          <t>11,51</t>
+          <t>10,77</t>
         </is>
       </c>
       <c r="C11" s="11" t="inlineStr">
         <is>
-          <t>15,62</t>
+          <t>14,16</t>
         </is>
       </c>
       <c r="D11" s="21">
@@ -3303,12 +3307,12 @@
       </c>
       <c r="B12" s="11" t="inlineStr">
         <is>
-          <t>29,53</t>
+          <t>29,91</t>
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr">
         <is>
-          <t>51,37</t>
+          <t>44,18</t>
         </is>
       </c>
       <c r="D12" s="21">
@@ -3324,12 +3328,12 @@
       </c>
       <c r="B13" s="11" t="inlineStr">
         <is>
-          <t>29,53</t>
+          <t>29,91</t>
         </is>
       </c>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>51,37</t>
+          <t>44,18</t>
         </is>
       </c>
       <c r="D13" s="21">
@@ -3345,12 +3349,12 @@
       </c>
       <c r="B14" s="11" t="inlineStr">
         <is>
-          <t>29,53</t>
+          <t>29,91</t>
         </is>
       </c>
       <c r="C14" s="11" t="inlineStr">
         <is>
-          <t>51,37</t>
+          <t>44,18</t>
         </is>
       </c>
       <c r="D14" s="21">
@@ -3366,12 +3370,12 @@
       </c>
       <c r="B15" s="11" t="inlineStr">
         <is>
-          <t>29,53</t>
+          <t>29,91</t>
         </is>
       </c>
       <c r="C15" s="11" t="inlineStr">
         <is>
-          <t>51,37</t>
+          <t>44,18</t>
         </is>
       </c>
       <c r="D15" s="21">
@@ -3387,12 +3391,12 @@
       </c>
       <c r="B16" s="11" t="inlineStr">
         <is>
-          <t>7,56</t>
+          <t>7,66</t>
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr">
         <is>
-          <t>10,33</t>
+          <t>9,37</t>
         </is>
       </c>
       <c r="D16" s="21">
@@ -3408,12 +3412,12 @@
       </c>
       <c r="B17" s="11" t="inlineStr">
         <is>
-          <t>29,53</t>
+          <t>29,91</t>
         </is>
       </c>
       <c r="C17" s="11" t="inlineStr">
         <is>
-          <t>51,37</t>
+          <t>44,18</t>
         </is>
       </c>
       <c r="D17" s="21">
@@ -3429,12 +3433,12 @@
       </c>
       <c r="B18" s="31" t="inlineStr">
         <is>
-          <t>21,99</t>
+          <t>22,12</t>
         </is>
       </c>
       <c r="C18" s="31" t="inlineStr">
         <is>
-          <t>30,56</t>
+          <t>27,7</t>
         </is>
       </c>
       <c r="D18" s="32">
@@ -3450,12 +3454,12 @@
       </c>
       <c r="B19" s="28" t="inlineStr">
         <is>
-          <t>20,3</t>
+          <t>20,56</t>
         </is>
       </c>
       <c r="C19" s="28" t="inlineStr">
         <is>
-          <t>26,68</t>
+          <t>28,45</t>
         </is>
       </c>
       <c r="D19" s="33">
@@ -3471,12 +3475,12 @@
       </c>
       <c r="B20" s="11" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="C20" s="11" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="D20" s="34">
@@ -3492,12 +3496,12 @@
       </c>
       <c r="B21" s="11" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="C21" s="11" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="D21" s="34">
@@ -3590,12 +3594,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>89,5</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>300,56</t>
+          <t>295,65</t>
         </is>
       </c>
       <c r="D4" s="21">
@@ -3611,12 +3615,12 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>22,96</t>
+          <t>23,87</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>46,32</t>
+          <t>45,56</t>
         </is>
       </c>
       <c r="D5" s="21">
@@ -3632,12 +3636,12 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>4,21</t>
         </is>
       </c>
       <c r="D6" s="21">
@@ -3653,12 +3657,12 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="D7" s="21">
@@ -3674,12 +3678,12 @@
       </c>
       <c r="B8" s="31" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="C8" s="31" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="D8" s="32">
@@ -3695,7 +3699,7 @@
       </c>
       <c r="B9" s="28" t="inlineStr">
         <is>
-          <t>1357,14</t>
+          <t>1109,37</t>
         </is>
       </c>
       <c r="C9" s="28" t="inlineStr">
@@ -3716,12 +3720,12 @@
       </c>
       <c r="B10" s="11" t="inlineStr">
         <is>
-          <t>29,28</t>
+          <t>30,43</t>
         </is>
       </c>
       <c r="C10" s="11" t="inlineStr">
         <is>
-          <t>50,89</t>
+          <t>46,86</t>
         </is>
       </c>
       <c r="D10" s="21">
@@ -3737,12 +3741,12 @@
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
-          <t>11,41</t>
+          <t>10,95</t>
         </is>
       </c>
       <c r="C11" s="11" t="inlineStr">
         <is>
-          <t>15,3</t>
+          <t>15,05</t>
         </is>
       </c>
       <c r="D11" s="21">
@@ -3758,12 +3762,12 @@
       </c>
       <c r="B12" s="11" t="inlineStr">
         <is>
-          <t>29,28</t>
+          <t>30,43</t>
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr">
         <is>
-          <t>50,89</t>
+          <t>46,86</t>
         </is>
       </c>
       <c r="D12" s="21">
@@ -3779,12 +3783,12 @@
       </c>
       <c r="B13" s="11" t="inlineStr">
         <is>
-          <t>29,28</t>
+          <t>30,43</t>
         </is>
       </c>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>50,89</t>
+          <t>46,86</t>
         </is>
       </c>
       <c r="D13" s="21">
@@ -3800,12 +3804,12 @@
       </c>
       <c r="B14" s="11" t="inlineStr">
         <is>
-          <t>29,28</t>
+          <t>30,43</t>
         </is>
       </c>
       <c r="C14" s="11" t="inlineStr">
         <is>
-          <t>50,89</t>
+          <t>46,86</t>
         </is>
       </c>
       <c r="D14" s="21">
@@ -3821,12 +3825,12 @@
       </c>
       <c r="B15" s="11" t="inlineStr">
         <is>
-          <t>29,28</t>
+          <t>30,43</t>
         </is>
       </c>
       <c r="C15" s="11" t="inlineStr">
         <is>
-          <t>50,89</t>
+          <t>46,86</t>
         </is>
       </c>
       <c r="D15" s="21">
@@ -3842,12 +3846,12 @@
       </c>
       <c r="B16" s="11" t="inlineStr">
         <is>
-          <t>7,5</t>
+          <t>7,8</t>
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr">
         <is>
-          <t>6,56</t>
+          <t>9,95</t>
         </is>
       </c>
       <c r="D16" s="21">
@@ -3863,12 +3867,12 @@
       </c>
       <c r="B17" s="11" t="inlineStr">
         <is>
-          <t>29,28</t>
+          <t>30,43</t>
         </is>
       </c>
       <c r="C17" s="11" t="inlineStr">
         <is>
-          <t>50,89</t>
+          <t>46,86</t>
         </is>
       </c>
       <c r="D17" s="21">
@@ -3884,12 +3888,12 @@
       </c>
       <c r="B18" s="31" t="inlineStr">
         <is>
-          <t>17,31</t>
+          <t>22,5</t>
         </is>
       </c>
       <c r="C18" s="31" t="inlineStr">
         <is>
-          <t>29,94</t>
+          <t>29,45</t>
         </is>
       </c>
       <c r="D18" s="32">
@@ -3905,12 +3909,12 @@
       </c>
       <c r="B19" s="28" t="inlineStr">
         <is>
-          <t>20,13</t>
+          <t>20,92</t>
         </is>
       </c>
       <c r="C19" s="28" t="inlineStr">
         <is>
-          <t>26,13</t>
+          <t>25,71</t>
         </is>
       </c>
       <c r="D19" s="33">
@@ -3926,12 +3930,12 @@
       </c>
       <c r="B20" s="11" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="C20" s="11" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="D20" s="34">
@@ -3947,12 +3951,12 @@
       </c>
       <c r="B21" s="11" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="C21" s="11" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="D21" s="34">
@@ -4045,12 +4049,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>83,81</t>
+          <t>87,63</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>298,11</t>
+          <t>305,06</t>
         </is>
       </c>
       <c r="D4" s="21">
@@ -4066,12 +4070,12 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>22,35</t>
+          <t>23,37</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>45,94</t>
+          <t>47,01</t>
         </is>
       </c>
       <c r="D5" s="21">
@@ -4087,12 +4091,12 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="D6" s="21">
@@ -4108,12 +4112,12 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>4,58</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="D7" s="21">
@@ -4129,12 +4133,12 @@
       </c>
       <c r="B8" s="31" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="C8" s="31" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="D8" s="32">
@@ -4150,7 +4154,7 @@
       </c>
       <c r="B9" s="28" t="inlineStr">
         <is>
-          <t>1403,78</t>
+          <t>1168,4</t>
         </is>
       </c>
       <c r="C9" s="28" t="inlineStr">
@@ -4171,12 +4175,12 @@
       </c>
       <c r="B10" s="11" t="inlineStr">
         <is>
-          <t>28,49</t>
+          <t>29,79</t>
         </is>
       </c>
       <c r="C10" s="11" t="inlineStr">
         <is>
-          <t>42,13</t>
+          <t>45,3</t>
         </is>
       </c>
       <c r="D10" s="21">
@@ -4192,12 +4196,12 @@
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
-          <t>11,11</t>
+          <t>10,72</t>
         </is>
       </c>
       <c r="C11" s="11" t="inlineStr">
         <is>
-          <t>15,17</t>
+          <t>15,53</t>
         </is>
       </c>
       <c r="D11" s="21">
@@ -4213,12 +4217,12 @@
       </c>
       <c r="B12" s="11" t="inlineStr">
         <is>
-          <t>28,49</t>
+          <t>29,79</t>
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr">
         <is>
-          <t>42,13</t>
+          <t>45,3</t>
         </is>
       </c>
       <c r="D12" s="21">
@@ -4234,12 +4238,12 @@
       </c>
       <c r="B13" s="11" t="inlineStr">
         <is>
-          <t>28,49</t>
+          <t>29,79</t>
         </is>
       </c>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>42,13</t>
+          <t>45,3</t>
         </is>
       </c>
       <c r="D13" s="21">
@@ -4255,12 +4259,12 @@
       </c>
       <c r="B14" s="11" t="inlineStr">
         <is>
-          <t>28,49</t>
+          <t>29,79</t>
         </is>
       </c>
       <c r="C14" s="11" t="inlineStr">
         <is>
-          <t>42,13</t>
+          <t>45,3</t>
         </is>
       </c>
       <c r="D14" s="21">
@@ -4276,12 +4280,12 @@
       </c>
       <c r="B15" s="11" t="inlineStr">
         <is>
-          <t>28,49</t>
+          <t>29,79</t>
         </is>
       </c>
       <c r="C15" s="11" t="inlineStr">
         <is>
-          <t>42,13</t>
+          <t>45,3</t>
         </is>
       </c>
       <c r="D15" s="21">
@@ -4297,12 +4301,12 @@
       </c>
       <c r="B16" s="11" t="inlineStr">
         <is>
-          <t>7,3</t>
+          <t>7,63</t>
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr">
         <is>
-          <t>7,16</t>
+          <t>10,27</t>
         </is>
       </c>
       <c r="D16" s="21">
@@ -4318,12 +4322,12 @@
       </c>
       <c r="B17" s="11" t="inlineStr">
         <is>
-          <t>28,49</t>
+          <t>29,79</t>
         </is>
       </c>
       <c r="C17" s="11" t="inlineStr">
         <is>
-          <t>42,13</t>
+          <t>45,3</t>
         </is>
       </c>
       <c r="D17" s="21">
@@ -4339,12 +4343,12 @@
       </c>
       <c r="B18" s="31" t="inlineStr">
         <is>
-          <t>21,34</t>
+          <t>22,16</t>
         </is>
       </c>
       <c r="C18" s="31" t="inlineStr">
         <is>
-          <t>29,69</t>
+          <t>30,38</t>
         </is>
       </c>
       <c r="D18" s="32">
@@ -4360,12 +4364,12 @@
       </c>
       <c r="B19" s="28" t="inlineStr">
         <is>
-          <t>19,59</t>
+          <t>20,49</t>
         </is>
       </c>
       <c r="C19" s="28" t="inlineStr">
         <is>
-          <t>25,92</t>
+          <t>26,53</t>
         </is>
       </c>
       <c r="D19" s="33">
@@ -4381,12 +4385,12 @@
       </c>
       <c r="B20" s="11" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="C20" s="11" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="D20" s="34">
@@ -4402,12 +4406,12 @@
       </c>
       <c r="B21" s="11" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="C21" s="11" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="D21" s="34">
@@ -4500,12 +4504,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>83,1</t>
+          <t>87,11</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>295,6</t>
+          <t>304,42</t>
         </is>
       </c>
       <c r="D4" s="21">
@@ -4521,12 +4525,12 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>22,16</t>
+          <t>23,23</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>45,56</t>
+          <t>46,92</t>
         </is>
       </c>
       <c r="D5" s="21">
@@ -4542,12 +4546,12 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>4,09</t>
         </is>
       </c>
       <c r="D6" s="21">
@@ -4563,12 +4567,12 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="D7" s="21">
@@ -4584,12 +4588,12 @@
       </c>
       <c r="B8" s="31" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="C8" s="31" t="inlineStr">
         <is>
-          <t>3,04</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="D8" s="32">
@@ -4605,7 +4609,7 @@
       </c>
       <c r="B9" s="28" t="inlineStr">
         <is>
-          <t>1391,93</t>
+          <t>1167,31</t>
         </is>
       </c>
       <c r="C9" s="28" t="inlineStr">
@@ -4626,12 +4630,12 @@
       </c>
       <c r="B10" s="11" t="inlineStr">
         <is>
-          <t>28,25</t>
+          <t>29,62</t>
         </is>
       </c>
       <c r="C10" s="11" t="inlineStr">
         <is>
-          <t>41,82</t>
+          <t>44,73</t>
         </is>
       </c>
       <c r="D10" s="21">
@@ -4647,12 +4651,12 @@
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
-          <t>11,01</t>
+          <t>11,43</t>
         </is>
       </c>
       <c r="C11" s="11" t="inlineStr">
         <is>
-          <t>15,04</t>
+          <t>15,49</t>
         </is>
       </c>
       <c r="D11" s="21">
@@ -4668,12 +4672,12 @@
       </c>
       <c r="B12" s="11" t="inlineStr">
         <is>
-          <t>28,25</t>
+          <t>29,62</t>
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr">
         <is>
-          <t>41,82</t>
+          <t>44,73</t>
         </is>
       </c>
       <c r="D12" s="21">
@@ -4689,12 +4693,12 @@
       </c>
       <c r="B13" s="11" t="inlineStr">
         <is>
-          <t>28,25</t>
+          <t>29,62</t>
         </is>
       </c>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>41,82</t>
+          <t>44,73</t>
         </is>
       </c>
       <c r="D13" s="21">
@@ -4710,12 +4714,12 @@
       </c>
       <c r="B14" s="11" t="inlineStr">
         <is>
-          <t>28,25</t>
+          <t>29,62</t>
         </is>
       </c>
       <c r="C14" s="11" t="inlineStr">
         <is>
-          <t>41,82</t>
+          <t>44,73</t>
         </is>
       </c>
       <c r="D14" s="21">
@@ -4731,12 +4735,12 @@
       </c>
       <c r="B15" s="11" t="inlineStr">
         <is>
-          <t>28,25</t>
+          <t>29,62</t>
         </is>
       </c>
       <c r="C15" s="11" t="inlineStr">
         <is>
-          <t>41,82</t>
+          <t>44,73</t>
         </is>
       </c>
       <c r="D15" s="21">
@@ -4752,12 +4756,12 @@
       </c>
       <c r="B16" s="11" t="inlineStr">
         <is>
-          <t>7,24</t>
+          <t>7,59</t>
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>10,25</t>
         </is>
       </c>
       <c r="D16" s="21">
@@ -4773,12 +4777,12 @@
       </c>
       <c r="B17" s="11" t="inlineStr">
         <is>
-          <t>28,25</t>
+          <t>29,62</t>
         </is>
       </c>
       <c r="C17" s="11" t="inlineStr">
         <is>
-          <t>41,82</t>
+          <t>44,73</t>
         </is>
       </c>
       <c r="D17" s="21">
@@ -4794,12 +4798,12 @@
       </c>
       <c r="B18" s="31" t="inlineStr">
         <is>
-          <t>21,27</t>
+          <t>22,03</t>
         </is>
       </c>
       <c r="C18" s="31" t="inlineStr">
         <is>
-          <t>29,44</t>
+          <t>30,32</t>
         </is>
       </c>
       <c r="D18" s="32">
@@ -4815,12 +4819,12 @@
       </c>
       <c r="B19" s="28" t="inlineStr">
         <is>
-          <t>19,43</t>
+          <t>20,36</t>
         </is>
       </c>
       <c r="C19" s="28" t="inlineStr">
         <is>
-          <t>25,7</t>
+          <t>26,47</t>
         </is>
       </c>
       <c r="D19" s="33">
@@ -4836,12 +4840,12 @@
       </c>
       <c r="B20" s="11" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="C20" s="11" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="D20" s="34">
@@ -4857,12 +4861,12 @@
       </c>
       <c r="B21" s="11" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="C21" s="11" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="D21" s="34">
@@ -4955,12 +4959,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>83,39</t>
+          <t>86,84</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>316,36</t>
+          <t>306,85</t>
         </is>
       </c>
       <c r="D4" s="21">
@@ -4976,12 +4980,12 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>22,24</t>
+          <t>23,16</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>48,76</t>
+          <t>47,29</t>
         </is>
       </c>
       <c r="D5" s="21">
@@ -4997,12 +5001,12 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>4,63</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr">
         <is>
-          <t>4,43</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="D6" s="21">
@@ -5018,12 +5022,12 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>4,86</t>
+          <t>4,71</t>
         </is>
       </c>
       <c r="D7" s="21">
@@ -5039,12 +5043,12 @@
       </c>
       <c r="B8" s="31" t="inlineStr">
         <is>
-          <t>3,63</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="C8" s="31" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="D8" s="32">
@@ -5060,7 +5064,7 @@
       </c>
       <c r="B9" s="28" t="inlineStr">
         <is>
-          <t>1396,78</t>
+          <t>1309,21</t>
         </is>
       </c>
       <c r="C9" s="28" t="inlineStr">
@@ -5081,12 +5085,12 @@
       </c>
       <c r="B10" s="11" t="inlineStr">
         <is>
-          <t>28,52</t>
+          <t>29,53</t>
         </is>
       </c>
       <c r="C10" s="11" t="inlineStr">
         <is>
-          <t>24,98</t>
+          <t>51,37</t>
         </is>
       </c>
       <c r="D10" s="21">
@@ -5102,12 +5106,12 @@
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
-          <t>11,05</t>
+          <t>11,51</t>
         </is>
       </c>
       <c r="C11" s="11" t="inlineStr">
         <is>
-          <t>16,1</t>
+          <t>15,62</t>
         </is>
       </c>
       <c r="D11" s="21">
@@ -5123,12 +5127,12 @@
       </c>
       <c r="B12" s="11" t="inlineStr">
         <is>
-          <t>28,52</t>
+          <t>29,53</t>
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr">
         <is>
-          <t>24,98</t>
+          <t>51,37</t>
         </is>
       </c>
       <c r="D12" s="21">
@@ -5144,12 +5148,12 @@
       </c>
       <c r="B13" s="11" t="inlineStr">
         <is>
-          <t>28,52</t>
+          <t>29,53</t>
         </is>
       </c>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>24,98</t>
+          <t>51,37</t>
         </is>
       </c>
       <c r="D13" s="21">
@@ -5165,12 +5169,12 @@
       </c>
       <c r="B14" s="11" t="inlineStr">
         <is>
-          <t>28,52</t>
+          <t>29,53</t>
         </is>
       </c>
       <c r="C14" s="11" t="inlineStr">
         <is>
-          <t>24,98</t>
+          <t>51,37</t>
         </is>
       </c>
       <c r="D14" s="21">
@@ -5186,12 +5190,12 @@
       </c>
       <c r="B15" s="11" t="inlineStr">
         <is>
-          <t>28,52</t>
+          <t>29,53</t>
         </is>
       </c>
       <c r="C15" s="11" t="inlineStr">
         <is>
-          <t>24,98</t>
+          <t>51,37</t>
         </is>
       </c>
       <c r="D15" s="21">
@@ -5207,12 +5211,12 @@
       </c>
       <c r="B16" s="11" t="inlineStr">
         <is>
-          <t>7,26</t>
+          <t>7,56</t>
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>10,33</t>
         </is>
       </c>
       <c r="D16" s="21">
@@ -5228,12 +5232,12 @@
       </c>
       <c r="B17" s="11" t="inlineStr">
         <is>
-          <t>28,52</t>
+          <t>29,53</t>
         </is>
       </c>
       <c r="C17" s="11" t="inlineStr">
         <is>
-          <t>24,98</t>
+          <t>51,37</t>
         </is>
       </c>
       <c r="D17" s="21">
@@ -5249,12 +5253,12 @@
       </c>
       <c r="B18" s="31" t="inlineStr">
         <is>
-          <t>21,34</t>
+          <t>21,99</t>
         </is>
       </c>
       <c r="C18" s="31" t="inlineStr">
         <is>
-          <t>31,51</t>
+          <t>30,56</t>
         </is>
       </c>
       <c r="D18" s="32">
@@ -5270,12 +5274,12 @@
       </c>
       <c r="B19" s="28" t="inlineStr">
         <is>
-          <t>19,83</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="C19" s="28" t="inlineStr">
         <is>
-          <t>32,35</t>
+          <t>26,68</t>
         </is>
       </c>
       <c r="D19" s="33">
@@ -5291,12 +5295,12 @@
       </c>
       <c r="B20" s="11" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="C20" s="11" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="D20" s="34">
@@ -5312,12 +5316,12 @@
       </c>
       <c r="B21" s="11" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="C21" s="11" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="D21" s="34">
@@ -5410,12 +5414,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>83,16</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>316,77</t>
+          <t>300,56</t>
         </is>
       </c>
       <c r="D4" s="21">
@@ -5431,12 +5435,12 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>22,18</t>
+          <t>22,96</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>48,82</t>
+          <t>46,32</t>
         </is>
       </c>
       <c r="D5" s="21">
@@ -5452,12 +5456,12 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr">
         <is>
-          <t>5,2</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="D6" s="21">
@@ -5473,12 +5477,12 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>4,86</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="D7" s="21">
@@ -5494,12 +5498,12 @@
       </c>
       <c r="B8" s="31" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="C8" s="31" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="D8" s="32">
@@ -5515,7 +5519,7 @@
       </c>
       <c r="B9" s="28" t="inlineStr">
         <is>
-          <t>1393,03</t>
+          <t>1357,14</t>
         </is>
       </c>
       <c r="C9" s="28" t="inlineStr">
@@ -5536,12 +5540,12 @@
       </c>
       <c r="B10" s="11" t="inlineStr">
         <is>
-          <t>28,45</t>
+          <t>29,28</t>
         </is>
       </c>
       <c r="C10" s="11" t="inlineStr">
         <is>
-          <t>25,01</t>
+          <t>50,89</t>
         </is>
       </c>
       <c r="D10" s="21">
@@ -5557,12 +5561,12 @@
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
-          <t>11,02</t>
+          <t>11,41</t>
         </is>
       </c>
       <c r="C11" s="11" t="inlineStr">
         <is>
-          <t>16,12</t>
+          <t>15,3</t>
         </is>
       </c>
       <c r="D11" s="21">
@@ -5578,12 +5582,12 @@
       </c>
       <c r="B12" s="11" t="inlineStr">
         <is>
-          <t>28,45</t>
+          <t>29,28</t>
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr">
         <is>
-          <t>25,01</t>
+          <t>50,89</t>
         </is>
       </c>
       <c r="D12" s="21">
@@ -5599,12 +5603,12 @@
       </c>
       <c r="B13" s="11" t="inlineStr">
         <is>
-          <t>28,45</t>
+          <t>29,28</t>
         </is>
       </c>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>25,01</t>
+          <t>50,89</t>
         </is>
       </c>
       <c r="D13" s="21">
@@ -5620,12 +5624,12 @@
       </c>
       <c r="B14" s="11" t="inlineStr">
         <is>
-          <t>28,45</t>
+          <t>29,28</t>
         </is>
       </c>
       <c r="C14" s="11" t="inlineStr">
         <is>
-          <t>25,01</t>
+          <t>50,89</t>
         </is>
       </c>
       <c r="D14" s="21">
@@ -5641,12 +5645,12 @@
       </c>
       <c r="B15" s="11" t="inlineStr">
         <is>
-          <t>28,45</t>
+          <t>29,28</t>
         </is>
       </c>
       <c r="C15" s="11" t="inlineStr">
         <is>
-          <t>25,01</t>
+          <t>50,89</t>
         </is>
       </c>
       <c r="D15" s="21">
@@ -5662,12 +5666,12 @@
       </c>
       <c r="B16" s="11" t="inlineStr">
         <is>
-          <t>7,24</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr">
         <is>
-          <t>10,67</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="D16" s="21">
@@ -5683,12 +5687,12 @@
       </c>
       <c r="B17" s="11" t="inlineStr">
         <is>
-          <t>28,45</t>
+          <t>29,28</t>
         </is>
       </c>
       <c r="C17" s="11" t="inlineStr">
         <is>
-          <t>25,01</t>
+          <t>50,89</t>
         </is>
       </c>
       <c r="D17" s="21">
@@ -5704,12 +5708,12 @@
       </c>
       <c r="B18" s="31" t="inlineStr">
         <is>
-          <t>21,4</t>
+          <t>17,31</t>
         </is>
       </c>
       <c r="C18" s="31" t="inlineStr">
         <is>
-          <t>31,55</t>
+          <t>29,94</t>
         </is>
       </c>
       <c r="D18" s="32">
@@ -5725,12 +5729,12 @@
       </c>
       <c r="B19" s="28" t="inlineStr">
         <is>
-          <t>19,78</t>
+          <t>20,13</t>
         </is>
       </c>
       <c r="C19" s="28" t="inlineStr">
         <is>
-          <t>32,39</t>
+          <t>26,13</t>
         </is>
       </c>
       <c r="D19" s="33">
@@ -5746,12 +5750,12 @@
       </c>
       <c r="B20" s="11" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="C20" s="11" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="D20" s="34">
@@ -5767,12 +5771,12 @@
       </c>
       <c r="B21" s="11" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="C21" s="11" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="D21" s="34">
@@ -5865,12 +5869,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>84,05</t>
+          <t>83,81</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>311,31</t>
+          <t>298,11</t>
         </is>
       </c>
       <c r="D4" s="21">
@@ -5886,12 +5890,12 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>22,3</t>
+          <t>22,35</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>47,98</t>
+          <t>45,94</t>
         </is>
       </c>
       <c r="D5" s="21">
@@ -5907,12 +5911,12 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr">
         <is>
-          <t>5,11</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="D6" s="21">
@@ -5928,12 +5932,12 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="D7" s="21">
@@ -5949,12 +5953,12 @@
       </c>
       <c r="B8" s="31" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="C8" s="31" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="D8" s="32">
@@ -5970,12 +5974,12 @@
       </c>
       <c r="B9" s="28" t="inlineStr">
         <is>
-          <t>840,49</t>
+          <t>1403,78</t>
         </is>
       </c>
       <c r="C9" s="28" t="inlineStr">
         <is>
-          <t>960,85</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D9" s="29">
@@ -5991,12 +5995,12 @@
       </c>
       <c r="B10" s="11" t="inlineStr">
         <is>
-          <t>28,63</t>
+          <t>28,49</t>
         </is>
       </c>
       <c r="C10" s="11" t="inlineStr">
         <is>
-          <t>24,58</t>
+          <t>42,13</t>
         </is>
       </c>
       <c r="D10" s="21">
@@ -6012,12 +6016,12 @@
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
-          <t>11,03</t>
+          <t>11,11</t>
         </is>
       </c>
       <c r="C11" s="11" t="inlineStr">
         <is>
-          <t>15,84</t>
+          <t>15,17</t>
         </is>
       </c>
       <c r="D11" s="21">
@@ -6033,12 +6037,12 @@
       </c>
       <c r="B12" s="11" t="inlineStr">
         <is>
-          <t>28,63</t>
+          <t>28,49</t>
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr">
         <is>
-          <t>24,58</t>
+          <t>42,13</t>
         </is>
       </c>
       <c r="D12" s="21">
@@ -6054,12 +6058,12 @@
       </c>
       <c r="B13" s="11" t="inlineStr">
         <is>
-          <t>28,63</t>
+          <t>28,49</t>
         </is>
       </c>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>24,58</t>
+          <t>42,13</t>
         </is>
       </c>
       <c r="D13" s="21">
@@ -6075,12 +6079,12 @@
       </c>
       <c r="B14" s="11" t="inlineStr">
         <is>
-          <t>28,63</t>
+          <t>28,49</t>
         </is>
       </c>
       <c r="C14" s="11" t="inlineStr">
         <is>
-          <t>24,58</t>
+          <t>42,13</t>
         </is>
       </c>
       <c r="D14" s="21">
@@ -6096,12 +6100,12 @@
       </c>
       <c r="B15" s="11" t="inlineStr">
         <is>
-          <t>28,63</t>
+          <t>28,49</t>
         </is>
       </c>
       <c r="C15" s="11" t="inlineStr">
         <is>
-          <t>24,58</t>
+          <t>42,13</t>
         </is>
       </c>
       <c r="D15" s="21">
@@ -6117,12 +6121,12 @@
       </c>
       <c r="B16" s="11" t="inlineStr">
         <is>
-          <t>7,28</t>
+          <t>7,3</t>
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr">
         <is>
-          <t>10,48</t>
+          <t>7,16</t>
         </is>
       </c>
       <c r="D16" s="21">
@@ -6138,12 +6142,12 @@
       </c>
       <c r="B17" s="11" t="inlineStr">
         <is>
-          <t>28,63</t>
+          <t>28,49</t>
         </is>
       </c>
       <c r="C17" s="11" t="inlineStr">
         <is>
-          <t>24,58</t>
+          <t>42,13</t>
         </is>
       </c>
       <c r="D17" s="21">
@@ -6159,12 +6163,12 @@
       </c>
       <c r="B18" s="31" t="inlineStr">
         <is>
-          <t>21,65</t>
+          <t>21,34</t>
         </is>
       </c>
       <c r="C18" s="31" t="inlineStr">
         <is>
-          <t>31,01</t>
+          <t>29,69</t>
         </is>
       </c>
       <c r="D18" s="32">
@@ -6180,12 +6184,12 @@
       </c>
       <c r="B19" s="28" t="inlineStr">
         <is>
-          <t>23,7</t>
+          <t>19,59</t>
         </is>
       </c>
       <c r="C19" s="28" t="inlineStr">
         <is>
-          <t>31,84</t>
+          <t>25,92</t>
         </is>
       </c>
       <c r="D19" s="33">
@@ -6201,12 +6205,12 @@
       </c>
       <c r="B20" s="11" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="C20" s="11" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="D20" s="34">
@@ -6222,12 +6226,12 @@
       </c>
       <c r="B21" s="11" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="C21" s="11" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="D21" s="34">
@@ -6646,12 +6650,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>84,06</t>
+          <t>83,1</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>311,35</t>
+          <t>295,6</t>
         </is>
       </c>
       <c r="D4" s="21">
@@ -6667,12 +6671,12 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>22,3</t>
+          <t>22,16</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>47,98</t>
+          <t>45,56</t>
         </is>
       </c>
       <c r="D5" s="21">
@@ -6688,12 +6692,12 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr">
         <is>
-          <t>5,11</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="D6" s="21">
@@ -6709,12 +6713,12 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="D7" s="21">
@@ -6730,12 +6734,12 @@
       </c>
       <c r="B8" s="31" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="C8" s="31" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="D8" s="32">
@@ -6751,12 +6755,12 @@
       </c>
       <c r="B9" s="28" t="inlineStr">
         <is>
-          <t>840,63</t>
+          <t>1391,93</t>
         </is>
       </c>
       <c r="C9" s="28" t="inlineStr">
         <is>
-          <t>960,94</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D9" s="29">
@@ -6772,12 +6776,12 @@
       </c>
       <c r="B10" s="11" t="inlineStr">
         <is>
-          <t>28,64</t>
+          <t>28,25</t>
         </is>
       </c>
       <c r="C10" s="11" t="inlineStr">
         <is>
-          <t>24,58</t>
+          <t>41,82</t>
         </is>
       </c>
       <c r="D10" s="21">
@@ -6793,12 +6797,12 @@
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
-          <t>11,03</t>
+          <t>11,01</t>
         </is>
       </c>
       <c r="C11" s="11" t="inlineStr">
         <is>
-          <t>15,85</t>
+          <t>15,04</t>
         </is>
       </c>
       <c r="D11" s="21">
@@ -6814,12 +6818,12 @@
       </c>
       <c r="B12" s="11" t="inlineStr">
         <is>
-          <t>28,64</t>
+          <t>28,25</t>
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr">
         <is>
-          <t>24,58</t>
+          <t>41,82</t>
         </is>
       </c>
       <c r="D12" s="21">
@@ -6835,12 +6839,12 @@
       </c>
       <c r="B13" s="11" t="inlineStr">
         <is>
-          <t>28,64</t>
+          <t>28,25</t>
         </is>
       </c>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>24,58</t>
+          <t>41,82</t>
         </is>
       </c>
       <c r="D13" s="21">
@@ -6856,12 +6860,12 @@
       </c>
       <c r="B14" s="11" t="inlineStr">
         <is>
-          <t>28,64</t>
+          <t>28,25</t>
         </is>
       </c>
       <c r="C14" s="11" t="inlineStr">
         <is>
-          <t>24,58</t>
+          <t>41,82</t>
         </is>
       </c>
       <c r="D14" s="21">
@@ -6877,12 +6881,12 @@
       </c>
       <c r="B15" s="11" t="inlineStr">
         <is>
-          <t>28,64</t>
+          <t>28,25</t>
         </is>
       </c>
       <c r="C15" s="11" t="inlineStr">
         <is>
-          <t>24,58</t>
+          <t>41,82</t>
         </is>
       </c>
       <c r="D15" s="21">
@@ -6898,12 +6902,12 @@
       </c>
       <c r="B16" s="11" t="inlineStr">
         <is>
-          <t>7,29</t>
+          <t>7,24</t>
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr">
         <is>
-          <t>10,48</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="D16" s="21">
@@ -6919,12 +6923,12 @@
       </c>
       <c r="B17" s="11" t="inlineStr">
         <is>
-          <t>28,64</t>
+          <t>28,25</t>
         </is>
       </c>
       <c r="C17" s="11" t="inlineStr">
         <is>
-          <t>24,58</t>
+          <t>41,82</t>
         </is>
       </c>
       <c r="D17" s="21">
@@ -6940,12 +6944,12 @@
       </c>
       <c r="B18" s="31" t="inlineStr">
         <is>
-          <t>21,65</t>
+          <t>21,27</t>
         </is>
       </c>
       <c r="C18" s="31" t="inlineStr">
         <is>
-          <t>31,01</t>
+          <t>29,44</t>
         </is>
       </c>
       <c r="D18" s="32">
@@ -6961,12 +6965,12 @@
       </c>
       <c r="B19" s="28" t="inlineStr">
         <is>
-          <t>23,7</t>
+          <t>19,43</t>
         </is>
       </c>
       <c r="C19" s="28" t="inlineStr">
         <is>
-          <t>31,84</t>
+          <t>25,7</t>
         </is>
       </c>
       <c r="D19" s="33">
@@ -6982,12 +6986,12 @@
       </c>
       <c r="B20" s="11" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="C20" s="11" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="D20" s="34">
@@ -7003,12 +7007,12 @@
       </c>
       <c r="B21" s="11" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="C21" s="11" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="D21" s="34">
@@ -7101,12 +7105,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>84,07</t>
+          <t>83,39</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>311,81</t>
+          <t>316,36</t>
         </is>
       </c>
       <c r="D4" s="21">
@@ -7117,17 +7121,17 @@
     <row r="5" ht="19.5" customHeight="1">
       <c r="A5" s="12" t="inlineStr">
         <is>
-          <t>Order</t>
+          <t>order</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>22,24</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>48,76</t>
         </is>
       </c>
       <c r="D5" s="21">
@@ -7138,17 +7142,17 @@
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="12" t="inlineStr">
         <is>
-          <t>Chaos</t>
+          <t>chaos</t>
         </is>
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>4,63</t>
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="D6" s="21">
@@ -7162,8 +7166,16 @@
           <t>Royale</t>
         </is>
       </c>
-      <c r="B7" s="11" t="n"/>
-      <c r="C7" s="11" t="n"/>
+      <c r="B7" s="11" t="inlineStr">
+        <is>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="C7" s="11" t="inlineStr">
+        <is>
+          <t>4,86</t>
+        </is>
+      </c>
       <c r="D7" s="21">
         <f>IF(OR(B7="", B7=0, C7="", C7=0), "", (B7-C7)/C7)</f>
         <v/>
@@ -7175,8 +7187,16 @@
           <t>Summer</t>
         </is>
       </c>
-      <c r="B8" s="31" t="n"/>
-      <c r="C8" s="31" t="n"/>
+      <c r="B8" s="31" t="inlineStr">
+        <is>
+          <t>3,63</t>
+        </is>
+      </c>
+      <c r="C8" s="31" t="inlineStr">
+        <is>
+          <t>3,49</t>
+        </is>
+      </c>
       <c r="D8" s="32">
         <f>IF(OR(B8="", B8=0, C8="", C8=0), "", (B8-C8)/C8)</f>
         <v/>
@@ -7190,12 +7210,12 @@
       </c>
       <c r="B9" s="28" t="inlineStr">
         <is>
-          <t>11,03</t>
+          <t>1396,78</t>
         </is>
       </c>
       <c r="C9" s="28" t="inlineStr">
         <is>
-          <t>15,87</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D9" s="29">
@@ -7211,12 +7231,12 @@
       </c>
       <c r="B10" s="11" t="inlineStr">
         <is>
-          <t>7,29</t>
+          <t>28,52</t>
         </is>
       </c>
       <c r="C10" s="11" t="inlineStr">
         <is>
-          <t>10,5</t>
+          <t>24,98</t>
         </is>
       </c>
       <c r="D10" s="21">
@@ -7232,12 +7252,12 @@
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
-          <t>840,74</t>
+          <t>11,05</t>
         </is>
       </c>
       <c r="C11" s="11" t="inlineStr">
         <is>
-          <t>962,38</t>
+          <t>16,1</t>
         </is>
       </c>
       <c r="D11" s="21">
@@ -7253,12 +7273,12 @@
       </c>
       <c r="B12" s="11" t="inlineStr">
         <is>
-          <t>28,64</t>
+          <t>28,52</t>
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr">
         <is>
-          <t>24,62</t>
+          <t>24,98</t>
         </is>
       </c>
       <c r="D12" s="21">
@@ -7274,12 +7294,12 @@
       </c>
       <c r="B13" s="11" t="inlineStr">
         <is>
-          <t>11,03</t>
+          <t>28,52</t>
         </is>
       </c>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>15,87</t>
+          <t>24,98</t>
         </is>
       </c>
       <c r="D13" s="21">
@@ -7295,12 +7315,12 @@
       </c>
       <c r="B14" s="11" t="inlineStr">
         <is>
-          <t>28,64</t>
+          <t>28,52</t>
         </is>
       </c>
       <c r="C14" s="11" t="inlineStr">
         <is>
-          <t>24,62</t>
+          <t>24,98</t>
         </is>
       </c>
       <c r="D14" s="21">
@@ -7316,12 +7336,12 @@
       </c>
       <c r="B15" s="11" t="inlineStr">
         <is>
-          <t>28,64</t>
+          <t>28,52</t>
         </is>
       </c>
       <c r="C15" s="11" t="inlineStr">
         <is>
-          <t>24,62</t>
+          <t>24,98</t>
         </is>
       </c>
       <c r="D15" s="21">
@@ -7337,12 +7357,12 @@
       </c>
       <c r="B16" s="11" t="inlineStr">
         <is>
-          <t>28,64</t>
+          <t>7,26</t>
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr">
         <is>
-          <t>24,62</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="D16" s="21">
@@ -7358,12 +7378,12 @@
       </c>
       <c r="B17" s="11" t="inlineStr">
         <is>
-          <t>28,64</t>
+          <t>28,52</t>
         </is>
       </c>
       <c r="C17" s="11" t="inlineStr">
         <is>
-          <t>24,62</t>
+          <t>24,98</t>
         </is>
       </c>
       <c r="D17" s="21">
@@ -7379,12 +7399,12 @@
       </c>
       <c r="B18" s="31" t="inlineStr">
         <is>
-          <t>7,29</t>
+          <t>21,34</t>
         </is>
       </c>
       <c r="C18" s="31" t="inlineStr">
         <is>
-          <t>10,5</t>
+          <t>31,51</t>
         </is>
       </c>
       <c r="D18" s="32">
@@ -7400,12 +7420,12 @@
       </c>
       <c r="B19" s="28" t="inlineStr">
         <is>
-          <t>23,71</t>
+          <t>19,83</t>
         </is>
       </c>
       <c r="C19" s="28" t="inlineStr">
         <is>
-          <t>31,89</t>
+          <t>32,35</t>
         </is>
       </c>
       <c r="D19" s="33">
@@ -7421,12 +7441,12 @@
       </c>
       <c r="B20" s="11" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="C20" s="11" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="D20" s="34">
@@ -7442,12 +7462,12 @@
       </c>
       <c r="B21" s="11" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="C21" s="11" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="D21" s="34">
@@ -7465,6 +7485,1810 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col width="23.5" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
+    <col width="12.1640625" bestFit="1" customWidth="1" style="3" min="2" max="3"/>
+    <col width="11.5" bestFit="1" customWidth="1" style="22" min="4" max="4"/>
+    <col width="23.5" bestFit="1" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="13" t="n"/>
+      <c r="B1" s="45" t="inlineStr">
+        <is>
+          <t>Currencies</t>
+        </is>
+      </c>
+      <c r="C1" s="43" t="n"/>
+      <c r="D1" s="18" t="n"/>
+    </row>
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="14" t="inlineStr">
+        <is>
+          <t>Totals:</t>
+        </is>
+      </c>
+      <c r="B2" s="15">
+        <f>SUM(B4:B84)</f>
+        <v/>
+      </c>
+      <c r="C2" s="15">
+        <f>SUM(C4:C84)</f>
+        <v/>
+      </c>
+      <c r="D2" s="19" t="n"/>
+    </row>
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="16" t="inlineStr">
+        <is>
+          <t>Cosmetics</t>
+        </is>
+      </c>
+      <c r="B3" s="17" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
+      <c r="C3" s="17" t="inlineStr">
+        <is>
+          <t>GODS</t>
+        </is>
+      </c>
+      <c r="D3" s="20" t="inlineStr">
+        <is>
+          <t>PD</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="19.5" customHeight="1">
+      <c r="A4" s="12" t="inlineStr">
+        <is>
+          <t>imToken</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>83,16</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>316,77</t>
+        </is>
+      </c>
+      <c r="D4" s="21">
+        <f>IF(OR(B4="", B4=0, C4="", C4=0), "", (B4-C4)/C4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="19.5" customHeight="1">
+      <c r="A5" s="12" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>22,18</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>48,82</t>
+        </is>
+      </c>
+      <c r="D5" s="21">
+        <f>IF(OR(B5="", B5=0, C5="", C5=0), "", (B5-C5)/C5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="19.5" customHeight="1">
+      <c r="A6" s="12" t="inlineStr">
+        <is>
+          <t>chaos</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t>4,62</t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="inlineStr">
+        <is>
+          <t>5,2</t>
+        </is>
+      </c>
+      <c r="D6" s="21">
+        <f>IF(OR(B6="", B6=0, C6="", C6=0), "", (B6-C6)/C6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="19.5" customHeight="1">
+      <c r="A7" s="12" t="inlineStr">
+        <is>
+          <t>Royale</t>
+        </is>
+      </c>
+      <c r="B7" s="11" t="inlineStr">
+        <is>
+          <t>1,61</t>
+        </is>
+      </c>
+      <c r="C7" s="11" t="inlineStr">
+        <is>
+          <t>4,86</t>
+        </is>
+      </c>
+      <c r="D7" s="21">
+        <f>IF(OR(B7="", B7=0, C7="", C7=0), "", (B7-C7)/C7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A8" s="30" t="inlineStr">
+        <is>
+          <t>Summer</t>
+        </is>
+      </c>
+      <c r="B8" s="31" t="inlineStr">
+        <is>
+          <t>1,57</t>
+        </is>
+      </c>
+      <c r="C8" s="31" t="inlineStr">
+        <is>
+          <t>2,44</t>
+        </is>
+      </c>
+      <c r="D8" s="32">
+        <f>IF(OR(B8="", B8=0, C8="", C8=0), "", (B8-C8)/C8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="19.5" customFormat="1" customHeight="1" s="26" thickTop="1">
+      <c r="A9" s="27" t="inlineStr">
+        <is>
+          <t>Divine Coronet Board</t>
+        </is>
+      </c>
+      <c r="B9" s="28" t="inlineStr">
+        <is>
+          <t>1393,03</t>
+        </is>
+      </c>
+      <c r="C9" s="28" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D9" s="29">
+        <f>IF(OR(B9="", B9=0, C9="", C9=0), "", (B9-C9)/C9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="19.5" customHeight="1">
+      <c r="A10" s="12" t="inlineStr">
+        <is>
+          <t>Demigod Genesis</t>
+        </is>
+      </c>
+      <c r="B10" s="11" t="inlineStr">
+        <is>
+          <t>28,45</t>
+        </is>
+      </c>
+      <c r="C10" s="11" t="inlineStr">
+        <is>
+          <t>25,01</t>
+        </is>
+      </c>
+      <c r="D10" s="21">
+        <f>IF(OR(B10="", B10=0, C10="", C10=0), "", (B10-C10)/C10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="19.5" customHeight="1">
+      <c r="A11" s="12" t="inlineStr">
+        <is>
+          <t>Order</t>
+        </is>
+      </c>
+      <c r="B11" s="11" t="inlineStr">
+        <is>
+          <t>11,02</t>
+        </is>
+      </c>
+      <c r="C11" s="11" t="inlineStr">
+        <is>
+          <t>16,12</t>
+        </is>
+      </c>
+      <c r="D11" s="21">
+        <f>IF(OR(B11="", B11=0, C11="", C11=0), "", (B11-C11)/C11)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="19.5" customHeight="1">
+      <c r="A12" s="12" t="inlineStr">
+        <is>
+          <t>Archon Genesis</t>
+        </is>
+      </c>
+      <c r="B12" s="11" t="inlineStr">
+        <is>
+          <t>28,45</t>
+        </is>
+      </c>
+      <c r="C12" s="11" t="inlineStr">
+        <is>
+          <t>25,01</t>
+        </is>
+      </c>
+      <c r="D12" s="21">
+        <f>IF(OR(B12="", B12=0, C12="", C12=0), "", (B12-C12)/C12)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="19.5" customHeight="1">
+      <c r="A13" s="12" t="inlineStr">
+        <is>
+          <t>Priest Genesis</t>
+        </is>
+      </c>
+      <c r="B13" s="11" t="inlineStr">
+        <is>
+          <t>28,45</t>
+        </is>
+      </c>
+      <c r="C13" s="11" t="inlineStr">
+        <is>
+          <t>25,01</t>
+        </is>
+      </c>
+      <c r="D13" s="21">
+        <f>IF(OR(B13="", B13=0, C13="", C13=0), "", (B13-C13)/C13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="19.5" customHeight="1">
+      <c r="A14" s="12" t="inlineStr">
+        <is>
+          <t>Disciple Genesis</t>
+        </is>
+      </c>
+      <c r="B14" s="11" t="inlineStr">
+        <is>
+          <t>28,45</t>
+        </is>
+      </c>
+      <c r="C14" s="11" t="inlineStr">
+        <is>
+          <t>25,01</t>
+        </is>
+      </c>
+      <c r="D14" s="21">
+        <f>IF(OR(B14="", B14=0, C14="", C14=0), "", (B14-C14)/C14)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="19.5" customHeight="1">
+      <c r="A15" s="12" t="inlineStr">
+        <is>
+          <t>Acolyte Genesis</t>
+        </is>
+      </c>
+      <c r="B15" s="11" t="inlineStr">
+        <is>
+          <t>28,45</t>
+        </is>
+      </c>
+      <c r="C15" s="11" t="inlineStr">
+        <is>
+          <t>25,01</t>
+        </is>
+      </c>
+      <c r="D15" s="21">
+        <f>IF(OR(B15="", B15=0, C15="", C15=0), "", (B15-C15)/C15)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="19.5" customHeight="1">
+      <c r="A16" s="12" t="inlineStr">
+        <is>
+          <t>Chaos</t>
+        </is>
+      </c>
+      <c r="B16" s="11" t="inlineStr">
+        <is>
+          <t>7,24</t>
+        </is>
+      </c>
+      <c r="C16" s="11" t="inlineStr">
+        <is>
+          <t>10,67</t>
+        </is>
+      </c>
+      <c r="D16" s="21">
+        <f>IF(OR(B16="", B16=0, C16="", C16=0), "", (B16-C16)/C16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="19.5" customHeight="1">
+      <c r="A17" s="12" t="inlineStr">
+        <is>
+          <t>Initiate Genesis</t>
+        </is>
+      </c>
+      <c r="B17" s="11" t="inlineStr">
+        <is>
+          <t>28,45</t>
+        </is>
+      </c>
+      <c r="C17" s="11" t="inlineStr">
+        <is>
+          <t>25,01</t>
+        </is>
+      </c>
+      <c r="D17" s="21">
+        <f>IF(OR(B17="", B17=0, C17="", C17=0), "", (B17-C17)/C17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A18" s="30" t="inlineStr">
+        <is>
+          <t>Siege of Raneko</t>
+        </is>
+      </c>
+      <c r="B18" s="31" t="inlineStr">
+        <is>
+          <t>21,4</t>
+        </is>
+      </c>
+      <c r="C18" s="31" t="inlineStr">
+        <is>
+          <t>31,55</t>
+        </is>
+      </c>
+      <c r="D18" s="32">
+        <f>IF(OR(B18="", B18=0, C18="", C18=0), "", (B18-C18)/C18)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" thickTop="1">
+      <c r="A19" s="27" t="inlineStr">
+        <is>
+          <t>Frosty Fruit</t>
+        </is>
+      </c>
+      <c r="B19" s="28" t="inlineStr">
+        <is>
+          <t>19,78</t>
+        </is>
+      </c>
+      <c r="C19" s="28" t="inlineStr">
+        <is>
+          <t>32,39</t>
+        </is>
+      </c>
+      <c r="D19" s="33">
+        <f>IF(OR(B19="", B19=0, C19="", C19=0), "", (B19-C19)/C19)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="12" t="inlineStr">
+        <is>
+          <t>Zid</t>
+        </is>
+      </c>
+      <c r="B20" s="11" t="inlineStr">
+        <is>
+          <t>2,59</t>
+        </is>
+      </c>
+      <c r="C20" s="11" t="inlineStr">
+        <is>
+          <t>2,59</t>
+        </is>
+      </c>
+      <c r="D20" s="34">
+        <f>IF(OR(B20="", B20=0, C20="", C20=0), "", (B20-C20)/C20)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="12" t="inlineStr">
+        <is>
+          <t>Automabunn</t>
+        </is>
+      </c>
+      <c r="B21" s="11" t="inlineStr">
+        <is>
+          <t>3,05</t>
+        </is>
+      </c>
+      <c r="C21" s="11" t="inlineStr">
+        <is>
+          <t>3,44</t>
+        </is>
+      </c>
+      <c r="D21" s="34">
+        <f>IF(OR(B21="", B21=0, C21="", C21=0), "", (B21-C21)/C21)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col width="23.5" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
+    <col width="12.1640625" bestFit="1" customWidth="1" style="3" min="2" max="3"/>
+    <col width="11.5" bestFit="1" customWidth="1" style="22" min="4" max="4"/>
+    <col width="23.5" bestFit="1" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="13" t="n"/>
+      <c r="B1" s="45" t="inlineStr">
+        <is>
+          <t>Currencies</t>
+        </is>
+      </c>
+      <c r="C1" s="43" t="n"/>
+      <c r="D1" s="18" t="n"/>
+    </row>
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="14" t="inlineStr">
+        <is>
+          <t>Totals:</t>
+        </is>
+      </c>
+      <c r="B2" s="15">
+        <f>SUM(B4:B84)</f>
+        <v/>
+      </c>
+      <c r="C2" s="15">
+        <f>SUM(C4:C84)</f>
+        <v/>
+      </c>
+      <c r="D2" s="19" t="n"/>
+    </row>
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="16" t="inlineStr">
+        <is>
+          <t>Cosmetics</t>
+        </is>
+      </c>
+      <c r="B3" s="17" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
+      <c r="C3" s="17" t="inlineStr">
+        <is>
+          <t>GODS</t>
+        </is>
+      </c>
+      <c r="D3" s="20" t="inlineStr">
+        <is>
+          <t>PD</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="19.5" customHeight="1">
+      <c r="A4" s="12" t="inlineStr">
+        <is>
+          <t>imToken</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>84,05</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>311,31</t>
+        </is>
+      </c>
+      <c r="D4" s="21">
+        <f>IF(OR(B4="", B4=0, C4="", C4=0), "", (B4-C4)/C4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="19.5" customHeight="1">
+      <c r="A5" s="12" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>22,3</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>47,98</t>
+        </is>
+      </c>
+      <c r="D5" s="21">
+        <f>IF(OR(B5="", B5=0, C5="", C5=0), "", (B5-C5)/C5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="19.5" customHeight="1">
+      <c r="A6" s="12" t="inlineStr">
+        <is>
+          <t>chaos</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t>4,65</t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="inlineStr">
+        <is>
+          <t>5,11</t>
+        </is>
+      </c>
+      <c r="D6" s="21">
+        <f>IF(OR(B6="", B6=0, C6="", C6=0), "", (B6-C6)/C6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="19.5" customHeight="1">
+      <c r="A7" s="12" t="inlineStr">
+        <is>
+          <t>Royale</t>
+        </is>
+      </c>
+      <c r="B7" s="11" t="inlineStr">
+        <is>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="C7" s="11" t="inlineStr">
+        <is>
+          <t>4,78</t>
+        </is>
+      </c>
+      <c r="D7" s="21">
+        <f>IF(OR(B7="", B7=0, C7="", C7=0), "", (B7-C7)/C7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A8" s="30" t="inlineStr">
+        <is>
+          <t>Summer</t>
+        </is>
+      </c>
+      <c r="B8" s="31" t="inlineStr">
+        <is>
+          <t>1,43</t>
+        </is>
+      </c>
+      <c r="C8" s="31" t="inlineStr">
+        <is>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="D8" s="32">
+        <f>IF(OR(B8="", B8=0, C8="", C8=0), "", (B8-C8)/C8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="19.5" customFormat="1" customHeight="1" s="26" thickTop="1">
+      <c r="A9" s="27" t="inlineStr">
+        <is>
+          <t>Divine Coronet Board</t>
+        </is>
+      </c>
+      <c r="B9" s="28" t="inlineStr">
+        <is>
+          <t>840,49</t>
+        </is>
+      </c>
+      <c r="C9" s="28" t="inlineStr">
+        <is>
+          <t>960,85</t>
+        </is>
+      </c>
+      <c r="D9" s="29">
+        <f>IF(OR(B9="", B9=0, C9="", C9=0), "", (B9-C9)/C9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="19.5" customHeight="1">
+      <c r="A10" s="12" t="inlineStr">
+        <is>
+          <t>Demigod Genesis</t>
+        </is>
+      </c>
+      <c r="B10" s="11" t="inlineStr">
+        <is>
+          <t>28,63</t>
+        </is>
+      </c>
+      <c r="C10" s="11" t="inlineStr">
+        <is>
+          <t>24,58</t>
+        </is>
+      </c>
+      <c r="D10" s="21">
+        <f>IF(OR(B10="", B10=0, C10="", C10=0), "", (B10-C10)/C10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="19.5" customHeight="1">
+      <c r="A11" s="12" t="inlineStr">
+        <is>
+          <t>Order</t>
+        </is>
+      </c>
+      <c r="B11" s="11" t="inlineStr">
+        <is>
+          <t>11,03</t>
+        </is>
+      </c>
+      <c r="C11" s="11" t="inlineStr">
+        <is>
+          <t>15,84</t>
+        </is>
+      </c>
+      <c r="D11" s="21">
+        <f>IF(OR(B11="", B11=0, C11="", C11=0), "", (B11-C11)/C11)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="19.5" customHeight="1">
+      <c r="A12" s="12" t="inlineStr">
+        <is>
+          <t>Archon Genesis</t>
+        </is>
+      </c>
+      <c r="B12" s="11" t="inlineStr">
+        <is>
+          <t>28,63</t>
+        </is>
+      </c>
+      <c r="C12" s="11" t="inlineStr">
+        <is>
+          <t>24,58</t>
+        </is>
+      </c>
+      <c r="D12" s="21">
+        <f>IF(OR(B12="", B12=0, C12="", C12=0), "", (B12-C12)/C12)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="19.5" customHeight="1">
+      <c r="A13" s="12" t="inlineStr">
+        <is>
+          <t>Priest Genesis</t>
+        </is>
+      </c>
+      <c r="B13" s="11" t="inlineStr">
+        <is>
+          <t>28,63</t>
+        </is>
+      </c>
+      <c r="C13" s="11" t="inlineStr">
+        <is>
+          <t>24,58</t>
+        </is>
+      </c>
+      <c r="D13" s="21">
+        <f>IF(OR(B13="", B13=0, C13="", C13=0), "", (B13-C13)/C13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="19.5" customHeight="1">
+      <c r="A14" s="12" t="inlineStr">
+        <is>
+          <t>Disciple Genesis</t>
+        </is>
+      </c>
+      <c r="B14" s="11" t="inlineStr">
+        <is>
+          <t>28,63</t>
+        </is>
+      </c>
+      <c r="C14" s="11" t="inlineStr">
+        <is>
+          <t>24,58</t>
+        </is>
+      </c>
+      <c r="D14" s="21">
+        <f>IF(OR(B14="", B14=0, C14="", C14=0), "", (B14-C14)/C14)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="19.5" customHeight="1">
+      <c r="A15" s="12" t="inlineStr">
+        <is>
+          <t>Acolyte Genesis</t>
+        </is>
+      </c>
+      <c r="B15" s="11" t="inlineStr">
+        <is>
+          <t>28,63</t>
+        </is>
+      </c>
+      <c r="C15" s="11" t="inlineStr">
+        <is>
+          <t>24,58</t>
+        </is>
+      </c>
+      <c r="D15" s="21">
+        <f>IF(OR(B15="", B15=0, C15="", C15=0), "", (B15-C15)/C15)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="19.5" customHeight="1">
+      <c r="A16" s="12" t="inlineStr">
+        <is>
+          <t>Chaos</t>
+        </is>
+      </c>
+      <c r="B16" s="11" t="inlineStr">
+        <is>
+          <t>7,28</t>
+        </is>
+      </c>
+      <c r="C16" s="11" t="inlineStr">
+        <is>
+          <t>10,48</t>
+        </is>
+      </c>
+      <c r="D16" s="21">
+        <f>IF(OR(B16="", B16=0, C16="", C16=0), "", (B16-C16)/C16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="19.5" customHeight="1">
+      <c r="A17" s="12" t="inlineStr">
+        <is>
+          <t>Initiate Genesis</t>
+        </is>
+      </c>
+      <c r="B17" s="11" t="inlineStr">
+        <is>
+          <t>28,63</t>
+        </is>
+      </c>
+      <c r="C17" s="11" t="inlineStr">
+        <is>
+          <t>24,58</t>
+        </is>
+      </c>
+      <c r="D17" s="21">
+        <f>IF(OR(B17="", B17=0, C17="", C17=0), "", (B17-C17)/C17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A18" s="30" t="inlineStr">
+        <is>
+          <t>Siege of Raneko</t>
+        </is>
+      </c>
+      <c r="B18" s="31" t="inlineStr">
+        <is>
+          <t>21,65</t>
+        </is>
+      </c>
+      <c r="C18" s="31" t="inlineStr">
+        <is>
+          <t>31,01</t>
+        </is>
+      </c>
+      <c r="D18" s="32">
+        <f>IF(OR(B18="", B18=0, C18="", C18=0), "", (B18-C18)/C18)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" thickTop="1">
+      <c r="A19" s="27" t="inlineStr">
+        <is>
+          <t>Frosty Fruit</t>
+        </is>
+      </c>
+      <c r="B19" s="28" t="inlineStr">
+        <is>
+          <t>23,7</t>
+        </is>
+      </c>
+      <c r="C19" s="28" t="inlineStr">
+        <is>
+          <t>31,84</t>
+        </is>
+      </c>
+      <c r="D19" s="33">
+        <f>IF(OR(B19="", B19=0, C19="", C19=0), "", (B19-C19)/C19)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="12" t="inlineStr">
+        <is>
+          <t>Zid</t>
+        </is>
+      </c>
+      <c r="B20" s="11" t="inlineStr">
+        <is>
+          <t>2,49</t>
+        </is>
+      </c>
+      <c r="C20" s="11" t="inlineStr">
+        <is>
+          <t>2,55</t>
+        </is>
+      </c>
+      <c r="D20" s="34">
+        <f>IF(OR(B20="", B20=0, C20="", C20=0), "", (B20-C20)/C20)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="12" t="inlineStr">
+        <is>
+          <t>Automabunn</t>
+        </is>
+      </c>
+      <c r="B21" s="11" t="inlineStr">
+        <is>
+          <t>3,11</t>
+        </is>
+      </c>
+      <c r="C21" s="11" t="inlineStr">
+        <is>
+          <t>3,38</t>
+        </is>
+      </c>
+      <c r="D21" s="34">
+        <f>IF(OR(B21="", B21=0, C21="", C21=0), "", (B21-C21)/C21)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col width="23.5" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
+    <col width="12.1640625" bestFit="1" customWidth="1" style="3" min="2" max="3"/>
+    <col width="11.5" bestFit="1" customWidth="1" style="22" min="4" max="4"/>
+    <col width="23.5" bestFit="1" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="13" t="n"/>
+      <c r="B1" s="45" t="inlineStr">
+        <is>
+          <t>Currencies</t>
+        </is>
+      </c>
+      <c r="C1" s="43" t="n"/>
+      <c r="D1" s="18" t="n"/>
+    </row>
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="14" t="inlineStr">
+        <is>
+          <t>Totals:</t>
+        </is>
+      </c>
+      <c r="B2" s="15">
+        <f>SUM(B4:B84)</f>
+        <v/>
+      </c>
+      <c r="C2" s="15">
+        <f>SUM(C4:C84)</f>
+        <v/>
+      </c>
+      <c r="D2" s="19" t="n"/>
+    </row>
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="16" t="inlineStr">
+        <is>
+          <t>Cosmetics</t>
+        </is>
+      </c>
+      <c r="B3" s="17" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
+      <c r="C3" s="17" t="inlineStr">
+        <is>
+          <t>GODS</t>
+        </is>
+      </c>
+      <c r="D3" s="20" t="inlineStr">
+        <is>
+          <t>PD</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="19.5" customHeight="1">
+      <c r="A4" s="12" t="inlineStr">
+        <is>
+          <t>imToken</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>84,06</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>311,35</t>
+        </is>
+      </c>
+      <c r="D4" s="21">
+        <f>IF(OR(B4="", B4=0, C4="", C4=0), "", (B4-C4)/C4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="19.5" customHeight="1">
+      <c r="A5" s="12" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>22,3</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>47,98</t>
+        </is>
+      </c>
+      <c r="D5" s="21">
+        <f>IF(OR(B5="", B5=0, C5="", C5=0), "", (B5-C5)/C5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="19.5" customHeight="1">
+      <c r="A6" s="12" t="inlineStr">
+        <is>
+          <t>chaos</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t>4,65</t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="inlineStr">
+        <is>
+          <t>5,11</t>
+        </is>
+      </c>
+      <c r="D6" s="21">
+        <f>IF(OR(B6="", B6=0, C6="", C6=0), "", (B6-C6)/C6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="19.5" customHeight="1">
+      <c r="A7" s="12" t="inlineStr">
+        <is>
+          <t>Royale</t>
+        </is>
+      </c>
+      <c r="B7" s="11" t="inlineStr">
+        <is>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="C7" s="11" t="inlineStr">
+        <is>
+          <t>4,78</t>
+        </is>
+      </c>
+      <c r="D7" s="21">
+        <f>IF(OR(B7="", B7=0, C7="", C7=0), "", (B7-C7)/C7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A8" s="30" t="inlineStr">
+        <is>
+          <t>Summer</t>
+        </is>
+      </c>
+      <c r="B8" s="31" t="inlineStr">
+        <is>
+          <t>1,43</t>
+        </is>
+      </c>
+      <c r="C8" s="31" t="inlineStr">
+        <is>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="D8" s="32">
+        <f>IF(OR(B8="", B8=0, C8="", C8=0), "", (B8-C8)/C8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="19.5" customFormat="1" customHeight="1" s="26" thickTop="1">
+      <c r="A9" s="27" t="inlineStr">
+        <is>
+          <t>Divine Coronet Board</t>
+        </is>
+      </c>
+      <c r="B9" s="28" t="inlineStr">
+        <is>
+          <t>840,63</t>
+        </is>
+      </c>
+      <c r="C9" s="28" t="inlineStr">
+        <is>
+          <t>960,94</t>
+        </is>
+      </c>
+      <c r="D9" s="29">
+        <f>IF(OR(B9="", B9=0, C9="", C9=0), "", (B9-C9)/C9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="19.5" customHeight="1">
+      <c r="A10" s="12" t="inlineStr">
+        <is>
+          <t>Demigod Genesis</t>
+        </is>
+      </c>
+      <c r="B10" s="11" t="inlineStr">
+        <is>
+          <t>28,64</t>
+        </is>
+      </c>
+      <c r="C10" s="11" t="inlineStr">
+        <is>
+          <t>24,58</t>
+        </is>
+      </c>
+      <c r="D10" s="21">
+        <f>IF(OR(B10="", B10=0, C10="", C10=0), "", (B10-C10)/C10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="19.5" customHeight="1">
+      <c r="A11" s="12" t="inlineStr">
+        <is>
+          <t>Order</t>
+        </is>
+      </c>
+      <c r="B11" s="11" t="inlineStr">
+        <is>
+          <t>11,03</t>
+        </is>
+      </c>
+      <c r="C11" s="11" t="inlineStr">
+        <is>
+          <t>15,85</t>
+        </is>
+      </c>
+      <c r="D11" s="21">
+        <f>IF(OR(B11="", B11=0, C11="", C11=0), "", (B11-C11)/C11)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="19.5" customHeight="1">
+      <c r="A12" s="12" t="inlineStr">
+        <is>
+          <t>Archon Genesis</t>
+        </is>
+      </c>
+      <c r="B12" s="11" t="inlineStr">
+        <is>
+          <t>28,64</t>
+        </is>
+      </c>
+      <c r="C12" s="11" t="inlineStr">
+        <is>
+          <t>24,58</t>
+        </is>
+      </c>
+      <c r="D12" s="21">
+        <f>IF(OR(B12="", B12=0, C12="", C12=0), "", (B12-C12)/C12)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="19.5" customHeight="1">
+      <c r="A13" s="12" t="inlineStr">
+        <is>
+          <t>Priest Genesis</t>
+        </is>
+      </c>
+      <c r="B13" s="11" t="inlineStr">
+        <is>
+          <t>28,64</t>
+        </is>
+      </c>
+      <c r="C13" s="11" t="inlineStr">
+        <is>
+          <t>24,58</t>
+        </is>
+      </c>
+      <c r="D13" s="21">
+        <f>IF(OR(B13="", B13=0, C13="", C13=0), "", (B13-C13)/C13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="19.5" customHeight="1">
+      <c r="A14" s="12" t="inlineStr">
+        <is>
+          <t>Disciple Genesis</t>
+        </is>
+      </c>
+      <c r="B14" s="11" t="inlineStr">
+        <is>
+          <t>28,64</t>
+        </is>
+      </c>
+      <c r="C14" s="11" t="inlineStr">
+        <is>
+          <t>24,58</t>
+        </is>
+      </c>
+      <c r="D14" s="21">
+        <f>IF(OR(B14="", B14=0, C14="", C14=0), "", (B14-C14)/C14)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="19.5" customHeight="1">
+      <c r="A15" s="12" t="inlineStr">
+        <is>
+          <t>Acolyte Genesis</t>
+        </is>
+      </c>
+      <c r="B15" s="11" t="inlineStr">
+        <is>
+          <t>28,64</t>
+        </is>
+      </c>
+      <c r="C15" s="11" t="inlineStr">
+        <is>
+          <t>24,58</t>
+        </is>
+      </c>
+      <c r="D15" s="21">
+        <f>IF(OR(B15="", B15=0, C15="", C15=0), "", (B15-C15)/C15)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="19.5" customHeight="1">
+      <c r="A16" s="12" t="inlineStr">
+        <is>
+          <t>Chaos</t>
+        </is>
+      </c>
+      <c r="B16" s="11" t="inlineStr">
+        <is>
+          <t>7,29</t>
+        </is>
+      </c>
+      <c r="C16" s="11" t="inlineStr">
+        <is>
+          <t>10,48</t>
+        </is>
+      </c>
+      <c r="D16" s="21">
+        <f>IF(OR(B16="", B16=0, C16="", C16=0), "", (B16-C16)/C16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="19.5" customHeight="1">
+      <c r="A17" s="12" t="inlineStr">
+        <is>
+          <t>Initiate Genesis</t>
+        </is>
+      </c>
+      <c r="B17" s="11" t="inlineStr">
+        <is>
+          <t>28,64</t>
+        </is>
+      </c>
+      <c r="C17" s="11" t="inlineStr">
+        <is>
+          <t>24,58</t>
+        </is>
+      </c>
+      <c r="D17" s="21">
+        <f>IF(OR(B17="", B17=0, C17="", C17=0), "", (B17-C17)/C17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A18" s="30" t="inlineStr">
+        <is>
+          <t>Siege of Raneko</t>
+        </is>
+      </c>
+      <c r="B18" s="31" t="inlineStr">
+        <is>
+          <t>21,65</t>
+        </is>
+      </c>
+      <c r="C18" s="31" t="inlineStr">
+        <is>
+          <t>31,01</t>
+        </is>
+      </c>
+      <c r="D18" s="32">
+        <f>IF(OR(B18="", B18=0, C18="", C18=0), "", (B18-C18)/C18)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" thickTop="1">
+      <c r="A19" s="27" t="inlineStr">
+        <is>
+          <t>Frosty Fruit</t>
+        </is>
+      </c>
+      <c r="B19" s="28" t="inlineStr">
+        <is>
+          <t>23,7</t>
+        </is>
+      </c>
+      <c r="C19" s="28" t="inlineStr">
+        <is>
+          <t>31,84</t>
+        </is>
+      </c>
+      <c r="D19" s="33">
+        <f>IF(OR(B19="", B19=0, C19="", C19=0), "", (B19-C19)/C19)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="12" t="inlineStr">
+        <is>
+          <t>Zid</t>
+        </is>
+      </c>
+      <c r="B20" s="11" t="inlineStr">
+        <is>
+          <t>2,49</t>
+        </is>
+      </c>
+      <c r="C20" s="11" t="inlineStr">
+        <is>
+          <t>2,55</t>
+        </is>
+      </c>
+      <c r="D20" s="34">
+        <f>IF(OR(B20="", B20=0, C20="", C20=0), "", (B20-C20)/C20)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="12" t="inlineStr">
+        <is>
+          <t>Automabunn</t>
+        </is>
+      </c>
+      <c r="B21" s="11" t="inlineStr">
+        <is>
+          <t>3,12</t>
+        </is>
+      </c>
+      <c r="C21" s="11" t="inlineStr">
+        <is>
+          <t>3,38</t>
+        </is>
+      </c>
+      <c r="D21" s="34">
+        <f>IF(OR(B21="", B21=0, C21="", C21=0), "", (B21-C21)/C21)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col width="23.5" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
+    <col width="12.1640625" bestFit="1" customWidth="1" style="3" min="2" max="3"/>
+    <col width="11.5" bestFit="1" customWidth="1" style="22" min="4" max="4"/>
+    <col width="23.5" bestFit="1" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="13" t="n"/>
+      <c r="B1" s="45" t="inlineStr">
+        <is>
+          <t>Currencies</t>
+        </is>
+      </c>
+      <c r="C1" s="43" t="n"/>
+      <c r="D1" s="18" t="n"/>
+    </row>
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="14" t="inlineStr">
+        <is>
+          <t>Totals:</t>
+        </is>
+      </c>
+      <c r="B2" s="15">
+        <f>SUM(B4:B84)</f>
+        <v/>
+      </c>
+      <c r="C2" s="15">
+        <f>SUM(C4:C84)</f>
+        <v/>
+      </c>
+      <c r="D2" s="19" t="n"/>
+    </row>
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="16" t="inlineStr">
+        <is>
+          <t>Cosmetics</t>
+        </is>
+      </c>
+      <c r="B3" s="17" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
+      <c r="C3" s="17" t="inlineStr">
+        <is>
+          <t>GODS</t>
+        </is>
+      </c>
+      <c r="D3" s="20" t="inlineStr">
+        <is>
+          <t>PD</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="19.5" customHeight="1">
+      <c r="A4" s="12" t="inlineStr">
+        <is>
+          <t>imToken</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>84,07</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>311,81</t>
+        </is>
+      </c>
+      <c r="D4" s="21">
+        <f>IF(OR(B4="", B4=0, C4="", C4=0), "", (B4-C4)/C4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="19.5" customHeight="1">
+      <c r="A5" s="12" t="inlineStr">
+        <is>
+          <t>Order</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>4,79</t>
+        </is>
+      </c>
+      <c r="D5" s="21">
+        <f>IF(OR(B5="", B5=0, C5="", C5=0), "", (B5-C5)/C5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="19.5" customHeight="1">
+      <c r="A6" s="12" t="inlineStr">
+        <is>
+          <t>Chaos</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t>1,43</t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="inlineStr">
+        <is>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="D6" s="21">
+        <f>IF(OR(B6="", B6=0, C6="", C6=0), "", (B6-C6)/C6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="19.5" customHeight="1">
+      <c r="A7" s="12" t="inlineStr">
+        <is>
+          <t>Royale</t>
+        </is>
+      </c>
+      <c r="B7" s="11" t="n"/>
+      <c r="C7" s="11" t="n"/>
+      <c r="D7" s="21">
+        <f>IF(OR(B7="", B7=0, C7="", C7=0), "", (B7-C7)/C7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A8" s="30" t="inlineStr">
+        <is>
+          <t>Summer</t>
+        </is>
+      </c>
+      <c r="B8" s="31" t="n"/>
+      <c r="C8" s="31" t="n"/>
+      <c r="D8" s="32">
+        <f>IF(OR(B8="", B8=0, C8="", C8=0), "", (B8-C8)/C8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="19.5" customFormat="1" customHeight="1" s="26" thickTop="1">
+      <c r="A9" s="27" t="inlineStr">
+        <is>
+          <t>Divine Coronet Board</t>
+        </is>
+      </c>
+      <c r="B9" s="28" t="inlineStr">
+        <is>
+          <t>11,03</t>
+        </is>
+      </c>
+      <c r="C9" s="28" t="inlineStr">
+        <is>
+          <t>15,87</t>
+        </is>
+      </c>
+      <c r="D9" s="29">
+        <f>IF(OR(B9="", B9=0, C9="", C9=0), "", (B9-C9)/C9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="19.5" customHeight="1">
+      <c r="A10" s="12" t="inlineStr">
+        <is>
+          <t>Demigod Genesis</t>
+        </is>
+      </c>
+      <c r="B10" s="11" t="inlineStr">
+        <is>
+          <t>7,29</t>
+        </is>
+      </c>
+      <c r="C10" s="11" t="inlineStr">
+        <is>
+          <t>10,5</t>
+        </is>
+      </c>
+      <c r="D10" s="21">
+        <f>IF(OR(B10="", B10=0, C10="", C10=0), "", (B10-C10)/C10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="19.5" customHeight="1">
+      <c r="A11" s="12" t="inlineStr">
+        <is>
+          <t>Order</t>
+        </is>
+      </c>
+      <c r="B11" s="11" t="inlineStr">
+        <is>
+          <t>840,74</t>
+        </is>
+      </c>
+      <c r="C11" s="11" t="inlineStr">
+        <is>
+          <t>962,38</t>
+        </is>
+      </c>
+      <c r="D11" s="21">
+        <f>IF(OR(B11="", B11=0, C11="", C11=0), "", (B11-C11)/C11)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="19.5" customHeight="1">
+      <c r="A12" s="12" t="inlineStr">
+        <is>
+          <t>Archon Genesis</t>
+        </is>
+      </c>
+      <c r="B12" s="11" t="inlineStr">
+        <is>
+          <t>28,64</t>
+        </is>
+      </c>
+      <c r="C12" s="11" t="inlineStr">
+        <is>
+          <t>24,62</t>
+        </is>
+      </c>
+      <c r="D12" s="21">
+        <f>IF(OR(B12="", B12=0, C12="", C12=0), "", (B12-C12)/C12)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="19.5" customHeight="1">
+      <c r="A13" s="12" t="inlineStr">
+        <is>
+          <t>Priest Genesis</t>
+        </is>
+      </c>
+      <c r="B13" s="11" t="inlineStr">
+        <is>
+          <t>11,03</t>
+        </is>
+      </c>
+      <c r="C13" s="11" t="inlineStr">
+        <is>
+          <t>15,87</t>
+        </is>
+      </c>
+      <c r="D13" s="21">
+        <f>IF(OR(B13="", B13=0, C13="", C13=0), "", (B13-C13)/C13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="19.5" customHeight="1">
+      <c r="A14" s="12" t="inlineStr">
+        <is>
+          <t>Disciple Genesis</t>
+        </is>
+      </c>
+      <c r="B14" s="11" t="inlineStr">
+        <is>
+          <t>28,64</t>
+        </is>
+      </c>
+      <c r="C14" s="11" t="inlineStr">
+        <is>
+          <t>24,62</t>
+        </is>
+      </c>
+      <c r="D14" s="21">
+        <f>IF(OR(B14="", B14=0, C14="", C14=0), "", (B14-C14)/C14)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="19.5" customHeight="1">
+      <c r="A15" s="12" t="inlineStr">
+        <is>
+          <t>Acolyte Genesis</t>
+        </is>
+      </c>
+      <c r="B15" s="11" t="inlineStr">
+        <is>
+          <t>28,64</t>
+        </is>
+      </c>
+      <c r="C15" s="11" t="inlineStr">
+        <is>
+          <t>24,62</t>
+        </is>
+      </c>
+      <c r="D15" s="21">
+        <f>IF(OR(B15="", B15=0, C15="", C15=0), "", (B15-C15)/C15)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="19.5" customHeight="1">
+      <c r="A16" s="12" t="inlineStr">
+        <is>
+          <t>Chaos</t>
+        </is>
+      </c>
+      <c r="B16" s="11" t="inlineStr">
+        <is>
+          <t>28,64</t>
+        </is>
+      </c>
+      <c r="C16" s="11" t="inlineStr">
+        <is>
+          <t>24,62</t>
+        </is>
+      </c>
+      <c r="D16" s="21">
+        <f>IF(OR(B16="", B16=0, C16="", C16=0), "", (B16-C16)/C16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="19.5" customHeight="1">
+      <c r="A17" s="12" t="inlineStr">
+        <is>
+          <t>Initiate Genesis</t>
+        </is>
+      </c>
+      <c r="B17" s="11" t="inlineStr">
+        <is>
+          <t>28,64</t>
+        </is>
+      </c>
+      <c r="C17" s="11" t="inlineStr">
+        <is>
+          <t>24,62</t>
+        </is>
+      </c>
+      <c r="D17" s="21">
+        <f>IF(OR(B17="", B17=0, C17="", C17=0), "", (B17-C17)/C17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A18" s="30" t="inlineStr">
+        <is>
+          <t>Siege of Raneko</t>
+        </is>
+      </c>
+      <c r="B18" s="31" t="inlineStr">
+        <is>
+          <t>7,29</t>
+        </is>
+      </c>
+      <c r="C18" s="31" t="inlineStr">
+        <is>
+          <t>10,5</t>
+        </is>
+      </c>
+      <c r="D18" s="32">
+        <f>IF(OR(B18="", B18=0, C18="", C18=0), "", (B18-C18)/C18)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" thickTop="1">
+      <c r="A19" s="27" t="inlineStr">
+        <is>
+          <t>Frosty Fruit</t>
+        </is>
+      </c>
+      <c r="B19" s="28" t="inlineStr">
+        <is>
+          <t>23,71</t>
+        </is>
+      </c>
+      <c r="C19" s="28" t="inlineStr">
+        <is>
+          <t>31,89</t>
+        </is>
+      </c>
+      <c r="D19" s="33">
+        <f>IF(OR(B19="", B19=0, C19="", C19=0), "", (B19-C19)/C19)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="12" t="inlineStr">
+        <is>
+          <t>Zid</t>
+        </is>
+      </c>
+      <c r="B20" s="11" t="inlineStr">
+        <is>
+          <t>2,49</t>
+        </is>
+      </c>
+      <c r="C20" s="11" t="inlineStr">
+        <is>
+          <t>2,55</t>
+        </is>
+      </c>
+      <c r="D20" s="34">
+        <f>IF(OR(B20="", B20=0, C20="", C20=0), "", (B20-C20)/C20)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="12" t="inlineStr">
+        <is>
+          <t>Automabunn</t>
+        </is>
+      </c>
+      <c r="B21" s="11" t="inlineStr">
+        <is>
+          <t>3,12</t>
+        </is>
+      </c>
+      <c r="C21" s="11" t="inlineStr">
+        <is>
+          <t>3,39</t>
+        </is>
+      </c>
+      <c r="D21" s="34">
+        <f>IF(OR(B21="", B21=0, C21="", C21=0), "", (B21-C21)/C21)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -7919,7 +9743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -8374,7 +10198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -8846,7 +10670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -9216,12 +11040,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>78,34</t>
+          <t>72,89</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>337,51</t>
+          <t>383,3</t>
         </is>
       </c>
       <c r="D4" s="21">
@@ -9237,12 +11061,12 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>22,85</t>
+          <t>23,37</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>52,02</t>
+          <t>59,07</t>
         </is>
       </c>
       <c r="D5" s="21">
@@ -9258,12 +11082,12 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>4,74</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="D6" s="21">
@@ -9279,12 +11103,12 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>5,18</t>
+          <t>5,88</t>
         </is>
       </c>
       <c r="D7" s="21">
@@ -9300,12 +11124,12 @@
       </c>
       <c r="B8" s="31" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="C8" s="31" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="D8" s="32">
@@ -9321,7 +11145,7 @@
       </c>
       <c r="B9" s="28" t="inlineStr">
         <is>
-          <t>1142,46</t>
+          <t>1006,61</t>
         </is>
       </c>
       <c r="C9" s="28" t="inlineStr">
@@ -9342,12 +11166,12 @@
       </c>
       <c r="B10" s="11" t="inlineStr">
         <is>
-          <t>33,16</t>
+          <t>33,55</t>
         </is>
       </c>
       <c r="C10" s="11" t="inlineStr">
         <is>
-          <t>51,74</t>
+          <t>47,32</t>
         </is>
       </c>
       <c r="D10" s="21">
@@ -9363,12 +11187,12 @@
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
-          <t>12,0</t>
+          <t>12,39</t>
         </is>
       </c>
       <c r="C11" s="11" t="inlineStr">
         <is>
-          <t>15,39</t>
+          <t>19,51</t>
         </is>
       </c>
       <c r="D11" s="21">
@@ -9384,12 +11208,12 @@
       </c>
       <c r="B12" s="11" t="inlineStr">
         <is>
-          <t>33,16</t>
+          <t>33,55</t>
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr">
         <is>
-          <t>51,74</t>
+          <t>47,32</t>
         </is>
       </c>
       <c r="D12" s="21">
@@ -9405,12 +11229,12 @@
       </c>
       <c r="B13" s="11" t="inlineStr">
         <is>
-          <t>33,16</t>
+          <t>33,55</t>
         </is>
       </c>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>51,74</t>
+          <t>47,32</t>
         </is>
       </c>
       <c r="D13" s="21">
@@ -9426,12 +11250,12 @@
       </c>
       <c r="B14" s="11" t="inlineStr">
         <is>
-          <t>33,16</t>
+          <t>33,55</t>
         </is>
       </c>
       <c r="C14" s="11" t="inlineStr">
         <is>
-          <t>51,74</t>
+          <t>47,32</t>
         </is>
       </c>
       <c r="D14" s="21">
@@ -9447,12 +11271,12 @@
       </c>
       <c r="B15" s="11" t="inlineStr">
         <is>
-          <t>33,16</t>
+          <t>33,55</t>
         </is>
       </c>
       <c r="C15" s="11" t="inlineStr">
         <is>
-          <t>51,74</t>
+          <t>47,32</t>
         </is>
       </c>
       <c r="D15" s="21">
@@ -9468,12 +11292,12 @@
       </c>
       <c r="B16" s="11" t="inlineStr">
         <is>
-          <t>5,88</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr">
         <is>
-          <t>11,26</t>
+          <t>9,89</t>
         </is>
       </c>
       <c r="D16" s="21">
@@ -9489,12 +11313,12 @@
       </c>
       <c r="B17" s="11" t="inlineStr">
         <is>
-          <t>33,16</t>
+          <t>33,55</t>
         </is>
       </c>
       <c r="C17" s="11" t="inlineStr">
         <is>
-          <t>51,74</t>
+          <t>47,32</t>
         </is>
       </c>
       <c r="D17" s="21">
@@ -9510,12 +11334,12 @@
       </c>
       <c r="B18" s="31" t="inlineStr">
         <is>
-          <t>23,86</t>
+          <t>20,47</t>
         </is>
       </c>
       <c r="C18" s="31" t="inlineStr">
         <is>
-          <t>32,82</t>
+          <t>31,41</t>
         </is>
       </c>
       <c r="D18" s="32">
@@ -9531,12 +11355,12 @@
       </c>
       <c r="B19" s="28" t="inlineStr">
         <is>
-          <t>27,32</t>
+          <t>28,22</t>
         </is>
       </c>
       <c r="C19" s="28" t="inlineStr">
         <is>
-          <t>34,72</t>
+          <t>39,43</t>
         </is>
       </c>
       <c r="D19" s="33">
@@ -9552,12 +11376,12 @@
       </c>
       <c r="B20" s="11" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="C20" s="11" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="D20" s="34">
@@ -9573,12 +11397,12 @@
       </c>
       <c r="B21" s="11" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>6,61</t>
         </is>
       </c>
       <c r="C21" s="11" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="D21" s="34">
@@ -9671,12 +11495,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>71,9</t>
+          <t>74,35</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>281,46</t>
+          <t>369,33</t>
         </is>
       </c>
       <c r="D4" s="21">
@@ -9692,12 +11516,12 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>20,97</t>
+          <t>20,54</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>43,38</t>
+          <t>56,92</t>
         </is>
       </c>
       <c r="D5" s="21">
@@ -9713,12 +11537,12 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>4,24</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="D6" s="21">
@@ -9734,12 +11558,12 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>4,32</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="D7" s="21">
@@ -9755,12 +11579,12 @@
       </c>
       <c r="B8" s="31" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="C8" s="31" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="D8" s="32">
@@ -9776,7 +11600,7 @@
       </c>
       <c r="B9" s="28" t="inlineStr">
         <is>
-          <t>1108,51</t>
+          <t>1026,76</t>
         </is>
       </c>
       <c r="C9" s="28" t="inlineStr">
@@ -9797,12 +11621,12 @@
       </c>
       <c r="B10" s="11" t="inlineStr">
         <is>
-          <t>30,59</t>
+          <t>34,4</t>
         </is>
       </c>
       <c r="C10" s="11" t="inlineStr">
         <is>
-          <t>29,21</t>
+          <t>45,6</t>
         </is>
       </c>
       <c r="D10" s="21">
@@ -9818,12 +11642,12 @@
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
-          <t>10,94</t>
+          <t>12,64</t>
         </is>
       </c>
       <c r="C11" s="11" t="inlineStr">
         <is>
-          <t>14,32</t>
+          <t>18,8</t>
         </is>
       </c>
       <c r="D11" s="21">
@@ -9839,12 +11663,12 @@
       </c>
       <c r="B12" s="11" t="inlineStr">
         <is>
-          <t>30,59</t>
+          <t>34,4</t>
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr">
         <is>
-          <t>29,21</t>
+          <t>45,6</t>
         </is>
       </c>
       <c r="D12" s="21">
@@ -9860,12 +11684,12 @@
       </c>
       <c r="B13" s="11" t="inlineStr">
         <is>
-          <t>30,59</t>
+          <t>34,4</t>
         </is>
       </c>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>29,21</t>
+          <t>45,6</t>
         </is>
       </c>
       <c r="D13" s="21">
@@ -9881,12 +11705,12 @@
       </c>
       <c r="B14" s="11" t="inlineStr">
         <is>
-          <t>30,59</t>
+          <t>34,4</t>
         </is>
       </c>
       <c r="C14" s="11" t="inlineStr">
         <is>
-          <t>29,21</t>
+          <t>45,6</t>
         </is>
       </c>
       <c r="D14" s="21">
@@ -9902,12 +11726,12 @@
       </c>
       <c r="B15" s="11" t="inlineStr">
         <is>
-          <t>30,59</t>
+          <t>34,4</t>
         </is>
       </c>
       <c r="C15" s="11" t="inlineStr">
         <is>
-          <t>29,21</t>
+          <t>45,6</t>
         </is>
       </c>
       <c r="D15" s="21">
@@ -9923,12 +11747,12 @@
       </c>
       <c r="B16" s="11" t="inlineStr">
         <is>
-          <t>6,89</t>
+          <t>6,12</t>
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr">
         <is>
-          <t>9,48</t>
+          <t>9,53</t>
         </is>
       </c>
       <c r="D16" s="21">
@@ -9944,12 +11768,12 @@
       </c>
       <c r="B17" s="11" t="inlineStr">
         <is>
-          <t>30,59</t>
+          <t>34,4</t>
         </is>
       </c>
       <c r="C17" s="11" t="inlineStr">
         <is>
-          <t>29,21</t>
+          <t>45,6</t>
         </is>
       </c>
       <c r="D17" s="21">
@@ -9965,12 +11789,12 @@
       </c>
       <c r="B18" s="31" t="inlineStr">
         <is>
-          <t>21,77</t>
+          <t>22,36</t>
         </is>
       </c>
       <c r="C18" s="31" t="inlineStr">
         <is>
-          <t>28,03</t>
+          <t>30,27</t>
         </is>
       </c>
       <c r="D18" s="32">
@@ -9986,12 +11810,12 @@
       </c>
       <c r="B19" s="28" t="inlineStr">
         <is>
-          <t>25,07</t>
+          <t>28,79</t>
         </is>
       </c>
       <c r="C19" s="28" t="inlineStr">
         <is>
-          <t>28,96</t>
+          <t>38,0</t>
         </is>
       </c>
       <c r="D19" s="33">
@@ -10007,12 +11831,12 @@
       </c>
       <c r="B20" s="11" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="C20" s="11" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="D20" s="34">
@@ -10028,12 +11852,12 @@
       </c>
       <c r="B21" s="11" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="C21" s="11" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="D21" s="34">
@@ -10126,12 +11950,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>76,06</t>
+          <t>72,87</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>269,63</t>
+          <t>359,25</t>
         </is>
       </c>
       <c r="D4" s="21">
@@ -10147,12 +11971,12 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>20,48</t>
+          <t>20,12</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>41,55</t>
+          <t>55,37</t>
         </is>
       </c>
       <c r="D5" s="21">
@@ -10168,12 +11992,12 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>4,76</t>
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr">
         <is>
-          <t>4,43</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="D6" s="21">
@@ -10189,12 +12013,12 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="D7" s="21">
@@ -10210,12 +12034,12 @@
       </c>
       <c r="B8" s="31" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="C8" s="31" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="D8" s="32">
@@ -10231,7 +12055,7 @@
       </c>
       <c r="B9" s="28" t="inlineStr">
         <is>
-          <t>1023,86</t>
+          <t>1006,23</t>
         </is>
       </c>
       <c r="C9" s="28" t="inlineStr">
@@ -10252,12 +12076,12 @@
       </c>
       <c r="B10" s="11" t="inlineStr">
         <is>
-          <t>29,72</t>
+          <t>33,71</t>
         </is>
       </c>
       <c r="C10" s="11" t="inlineStr">
         <is>
-          <t>58,33</t>
+          <t>32,15</t>
         </is>
       </c>
       <c r="D10" s="21">
@@ -10273,12 +12097,12 @@
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
-          <t>10,69</t>
+          <t>12,39</t>
         </is>
       </c>
       <c r="C11" s="11" t="inlineStr">
         <is>
-          <t>13,72</t>
+          <t>18,28</t>
         </is>
       </c>
       <c r="D11" s="21">
@@ -10294,12 +12118,12 @@
       </c>
       <c r="B12" s="11" t="inlineStr">
         <is>
-          <t>29,72</t>
+          <t>33,71</t>
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr">
         <is>
-          <t>58,33</t>
+          <t>32,15</t>
         </is>
       </c>
       <c r="D12" s="21">
@@ -10315,12 +12139,12 @@
       </c>
       <c r="B13" s="11" t="inlineStr">
         <is>
-          <t>29,72</t>
+          <t>33,71</t>
         </is>
       </c>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>58,33</t>
+          <t>32,15</t>
         </is>
       </c>
       <c r="D13" s="21">
@@ -10336,12 +12160,12 @@
       </c>
       <c r="B14" s="11" t="inlineStr">
         <is>
-          <t>29,72</t>
+          <t>33,71</t>
         </is>
       </c>
       <c r="C14" s="11" t="inlineStr">
         <is>
-          <t>58,33</t>
+          <t>32,15</t>
         </is>
       </c>
       <c r="D14" s="21">
@@ -10357,12 +12181,12 @@
       </c>
       <c r="B15" s="11" t="inlineStr">
         <is>
-          <t>29,72</t>
+          <t>33,71</t>
         </is>
       </c>
       <c r="C15" s="11" t="inlineStr">
         <is>
-          <t>58,33</t>
+          <t>32,15</t>
         </is>
       </c>
       <c r="D15" s="21">
@@ -10378,12 +12202,12 @@
       </c>
       <c r="B16" s="11" t="inlineStr">
         <is>
-          <t>7,61</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr">
         <is>
-          <t>9,08</t>
+          <t>9,27</t>
         </is>
       </c>
       <c r="D16" s="21">
@@ -10399,12 +12223,12 @@
       </c>
       <c r="B17" s="11" t="inlineStr">
         <is>
-          <t>29,72</t>
+          <t>33,71</t>
         </is>
       </c>
       <c r="C17" s="11" t="inlineStr">
         <is>
-          <t>58,33</t>
+          <t>32,15</t>
         </is>
       </c>
       <c r="D17" s="21">
@@ -10420,12 +12244,12 @@
       </c>
       <c r="B18" s="31" t="inlineStr">
         <is>
-          <t>21,49</t>
+          <t>24,3</t>
         </is>
       </c>
       <c r="C18" s="31" t="inlineStr">
         <is>
-          <t>26,86</t>
+          <t>29,59</t>
         </is>
       </c>
       <c r="D18" s="32">
@@ -10441,12 +12265,12 @@
       </c>
       <c r="B19" s="28" t="inlineStr">
         <is>
-          <t>24,75</t>
+          <t>28,21</t>
         </is>
       </c>
       <c r="C19" s="28" t="inlineStr">
         <is>
-          <t>27,74</t>
+          <t>36,96</t>
         </is>
       </c>
       <c r="D19" s="33">
@@ -10462,12 +12286,12 @@
       </c>
       <c r="B20" s="11" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="C20" s="11" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="D20" s="34">
@@ -10483,12 +12307,12 @@
       </c>
       <c r="B21" s="11" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="C21" s="11" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="D21" s="34">
@@ -10581,12 +12405,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>82,24</t>
+          <t>74,98</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>271,39</t>
+          <t>353,6</t>
         </is>
       </c>
       <c r="D4" s="21">
@@ -10602,12 +12426,12 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>20,57</t>
+          <t>23,93</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>41,83</t>
+          <t>54,5</t>
         </is>
       </c>
       <c r="D5" s="21">
@@ -10623,12 +12447,12 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>4,08</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="D6" s="21">
@@ -10644,12 +12468,12 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>4,17</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="D7" s="21">
@@ -10665,12 +12489,12 @@
       </c>
       <c r="B8" s="31" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="C8" s="31" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="D8" s="32">
@@ -10686,7 +12510,7 @@
       </c>
       <c r="B9" s="28" t="inlineStr">
         <is>
-          <t>1028,32</t>
+          <t>1069,94</t>
         </is>
       </c>
       <c r="C9" s="28" t="inlineStr">
@@ -10707,12 +12531,12 @@
       </c>
       <c r="B10" s="11" t="inlineStr">
         <is>
-          <t>29,85</t>
+          <t>34,86</t>
         </is>
       </c>
       <c r="C10" s="11" t="inlineStr">
         <is>
-          <t>28,82</t>
+          <t>33,51</t>
         </is>
       </c>
       <c r="D10" s="21">
@@ -10728,12 +12552,12 @@
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
-          <t>10,73</t>
+          <t>12,75</t>
         </is>
       </c>
       <c r="C11" s="11" t="inlineStr">
         <is>
-          <t>13,81</t>
+          <t>16,12</t>
         </is>
       </c>
       <c r="D11" s="21">
@@ -10749,12 +12573,12 @@
       </c>
       <c r="B12" s="11" t="inlineStr">
         <is>
-          <t>29,85</t>
+          <t>34,86</t>
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr">
         <is>
-          <t>28,82</t>
+          <t>33,51</t>
         </is>
       </c>
       <c r="D12" s="21">
@@ -10770,12 +12594,12 @@
       </c>
       <c r="B13" s="11" t="inlineStr">
         <is>
-          <t>29,85</t>
+          <t>34,86</t>
         </is>
       </c>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>28,82</t>
+          <t>33,51</t>
         </is>
       </c>
       <c r="D13" s="21">
@@ -10791,12 +12615,12 @@
       </c>
       <c r="B14" s="11" t="inlineStr">
         <is>
-          <t>29,85</t>
+          <t>34,86</t>
         </is>
       </c>
       <c r="C14" s="11" t="inlineStr">
         <is>
-          <t>28,82</t>
+          <t>33,51</t>
         </is>
       </c>
       <c r="D14" s="21">
@@ -10812,12 +12636,12 @@
       </c>
       <c r="B15" s="11" t="inlineStr">
         <is>
-          <t>29,85</t>
+          <t>34,86</t>
         </is>
       </c>
       <c r="C15" s="11" t="inlineStr">
         <is>
-          <t>28,82</t>
+          <t>33,51</t>
         </is>
       </c>
       <c r="D15" s="21">
@@ -10833,12 +12657,12 @@
       </c>
       <c r="B16" s="11" t="inlineStr">
         <is>
-          <t>7,64</t>
+          <t>6,21</t>
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr">
         <is>
-          <t>9,14</t>
+          <t>9,13</t>
         </is>
       </c>
       <c r="D16" s="21">
@@ -10854,12 +12678,12 @@
       </c>
       <c r="B17" s="11" t="inlineStr">
         <is>
-          <t>29,85</t>
+          <t>34,86</t>
         </is>
       </c>
       <c r="C17" s="11" t="inlineStr">
         <is>
-          <t>28,82</t>
+          <t>33,51</t>
         </is>
       </c>
       <c r="D17" s="21">
@@ -10875,12 +12699,12 @@
       </c>
       <c r="B18" s="31" t="inlineStr">
         <is>
-          <t>21,58</t>
+          <t>25,22</t>
         </is>
       </c>
       <c r="C18" s="31" t="inlineStr">
         <is>
-          <t>27,03</t>
+          <t>34,39</t>
         </is>
       </c>
       <c r="D18" s="32">
@@ -10896,12 +12720,12 @@
       </c>
       <c r="B19" s="28" t="inlineStr">
         <is>
-          <t>24,85</t>
+          <t>29,03</t>
         </is>
       </c>
       <c r="C19" s="28" t="inlineStr">
         <is>
-          <t>27,92</t>
+          <t>36,38</t>
         </is>
       </c>
       <c r="D19" s="33">
@@ -10917,12 +12741,12 @@
       </c>
       <c r="B20" s="11" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="C20" s="11" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="D20" s="34">
@@ -10938,12 +12762,12 @@
       </c>
       <c r="B21" s="11" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="C21" s="11" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="D21" s="34">
@@ -11036,12 +12860,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>83,64</t>
+          <t>78,34</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>273,2</t>
+          <t>337,51</t>
         </is>
       </c>
       <c r="D4" s="21">
@@ -11057,12 +12881,12 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>20,92</t>
+          <t>22,85</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>42,1</t>
+          <t>52,02</t>
         </is>
       </c>
       <c r="D5" s="21">
@@ -11078,12 +12902,12 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>4,13</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr">
         <is>
-          <t>4,48</t>
+          <t>4,02</t>
         </is>
       </c>
       <c r="D6" s="21">
@@ -11099,12 +12923,12 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>4,19</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="D7" s="21">
@@ -11120,12 +12944,12 @@
       </c>
       <c r="B8" s="31" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="C8" s="31" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="D8" s="32">
@@ -11141,7 +12965,7 @@
       </c>
       <c r="B9" s="28" t="inlineStr">
         <is>
-          <t>1045,91</t>
+          <t>1142,46</t>
         </is>
       </c>
       <c r="C9" s="28" t="inlineStr">
@@ -11162,12 +12986,12 @@
       </c>
       <c r="B10" s="11" t="inlineStr">
         <is>
-          <t>30,36</t>
+          <t>33,16</t>
         </is>
       </c>
       <c r="C10" s="11" t="inlineStr">
         <is>
-          <t>28,89</t>
+          <t>51,74</t>
         </is>
       </c>
       <c r="D10" s="21">
@@ -11183,12 +13007,12 @@
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
-          <t>10,92</t>
+          <t>12,0</t>
         </is>
       </c>
       <c r="C11" s="11" t="inlineStr">
         <is>
-          <t>13,9</t>
+          <t>15,39</t>
         </is>
       </c>
       <c r="D11" s="21">
@@ -11204,12 +13028,12 @@
       </c>
       <c r="B12" s="11" t="inlineStr">
         <is>
-          <t>30,36</t>
+          <t>33,16</t>
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr">
         <is>
-          <t>28,89</t>
+          <t>51,74</t>
         </is>
       </c>
       <c r="D12" s="21">
@@ -11225,12 +13049,12 @@
       </c>
       <c r="B13" s="11" t="inlineStr">
         <is>
-          <t>30,36</t>
+          <t>33,16</t>
         </is>
       </c>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>28,89</t>
+          <t>51,74</t>
         </is>
       </c>
       <c r="D13" s="21">
@@ -11246,12 +13070,12 @@
       </c>
       <c r="B14" s="11" t="inlineStr">
         <is>
-          <t>30,36</t>
+          <t>33,16</t>
         </is>
       </c>
       <c r="C14" s="11" t="inlineStr">
         <is>
-          <t>28,89</t>
+          <t>51,74</t>
         </is>
       </c>
       <c r="D14" s="21">
@@ -11267,12 +13091,12 @@
       </c>
       <c r="B15" s="11" t="inlineStr">
         <is>
-          <t>30,36</t>
+          <t>33,16</t>
         </is>
       </c>
       <c r="C15" s="11" t="inlineStr">
         <is>
-          <t>28,89</t>
+          <t>51,74</t>
         </is>
       </c>
       <c r="D15" s="21">
@@ -11288,12 +13112,12 @@
       </c>
       <c r="B16" s="11" t="inlineStr">
         <is>
-          <t>7,77</t>
+          <t>5,88</t>
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr">
         <is>
-          <t>9,2</t>
+          <t>11,26</t>
         </is>
       </c>
       <c r="D16" s="21">
@@ -11309,12 +13133,12 @@
       </c>
       <c r="B17" s="11" t="inlineStr">
         <is>
-          <t>30,36</t>
+          <t>33,16</t>
         </is>
       </c>
       <c r="C17" s="11" t="inlineStr">
         <is>
-          <t>28,89</t>
+          <t>51,74</t>
         </is>
       </c>
       <c r="D17" s="21">
@@ -11330,12 +13154,12 @@
       </c>
       <c r="B18" s="31" t="inlineStr">
         <is>
-          <t>21,95</t>
+          <t>23,86</t>
         </is>
       </c>
       <c r="C18" s="31" t="inlineStr">
         <is>
-          <t>27,21</t>
+          <t>32,82</t>
         </is>
       </c>
       <c r="D18" s="32">
@@ -11351,12 +13175,12 @@
       </c>
       <c r="B19" s="28" t="inlineStr">
         <is>
-          <t>25,28</t>
+          <t>27,32</t>
         </is>
       </c>
       <c r="C19" s="28" t="inlineStr">
         <is>
-          <t>28,11</t>
+          <t>34,72</t>
         </is>
       </c>
       <c r="D19" s="33">
@@ -11372,12 +13196,12 @@
       </c>
       <c r="B20" s="11" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="C20" s="11" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="D20" s="34">
@@ -11393,12 +13217,12 @@
       </c>
       <c r="B21" s="11" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="C21" s="11" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="D21" s="34">
@@ -11491,12 +13315,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>88,77</t>
+          <t>71,9</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>280,19</t>
+          <t>281,46</t>
         </is>
       </c>
       <c r="D4" s="21">
@@ -11512,12 +13336,12 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>20,92</t>
+          <t>20,97</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>43,18</t>
+          <t>43,38</t>
         </is>
       </c>
       <c r="D5" s="21">
@@ -11533,12 +13357,12 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>4,34</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="D6" s="21">
@@ -11554,12 +13378,12 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="D7" s="21">
@@ -11575,12 +13399,12 @@
       </c>
       <c r="B8" s="31" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="C8" s="31" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="D8" s="32">
@@ -11596,7 +13420,7 @@
       </c>
       <c r="B9" s="28" t="inlineStr">
         <is>
-          <t>777,13</t>
+          <t>1108,51</t>
         </is>
       </c>
       <c r="C9" s="28" t="inlineStr">
@@ -11617,12 +13441,12 @@
       </c>
       <c r="B10" s="11" t="inlineStr">
         <is>
-          <t>30,52</t>
+          <t>30,59</t>
         </is>
       </c>
       <c r="C10" s="11" t="inlineStr">
         <is>
-          <t>42,28</t>
+          <t>29,21</t>
         </is>
       </c>
       <c r="D10" s="21">
@@ -11638,12 +13462,12 @@
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
-          <t>10,92</t>
+          <t>10,94</t>
         </is>
       </c>
       <c r="C11" s="11" t="inlineStr">
         <is>
-          <t>14,26</t>
+          <t>14,32</t>
         </is>
       </c>
       <c r="D11" s="21">
@@ -11659,12 +13483,12 @@
       </c>
       <c r="B12" s="11" t="inlineStr">
         <is>
-          <t>30,52</t>
+          <t>30,59</t>
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr">
         <is>
-          <t>42,28</t>
+          <t>29,21</t>
         </is>
       </c>
       <c r="D12" s="21">
@@ -11680,12 +13504,12 @@
       </c>
       <c r="B13" s="11" t="inlineStr">
         <is>
-          <t>30,52</t>
+          <t>30,59</t>
         </is>
       </c>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>42,28</t>
+          <t>29,21</t>
         </is>
       </c>
       <c r="D13" s="21">
@@ -11701,12 +13525,12 @@
       </c>
       <c r="B14" s="11" t="inlineStr">
         <is>
-          <t>30,52</t>
+          <t>30,59</t>
         </is>
       </c>
       <c r="C14" s="11" t="inlineStr">
         <is>
-          <t>42,28</t>
+          <t>29,21</t>
         </is>
       </c>
       <c r="D14" s="21">
@@ -11722,12 +13546,12 @@
       </c>
       <c r="B15" s="11" t="inlineStr">
         <is>
-          <t>30,52</t>
+          <t>30,59</t>
         </is>
       </c>
       <c r="C15" s="11" t="inlineStr">
         <is>
-          <t>42,28</t>
+          <t>29,21</t>
         </is>
       </c>
       <c r="D15" s="21">
@@ -11743,12 +13567,12 @@
       </c>
       <c r="B16" s="11" t="inlineStr">
         <is>
-          <t>7,77</t>
+          <t>6,89</t>
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr">
         <is>
-          <t>9,43</t>
+          <t>9,48</t>
         </is>
       </c>
       <c r="D16" s="21">
@@ -11764,12 +13588,12 @@
       </c>
       <c r="B17" s="11" t="inlineStr">
         <is>
-          <t>30,52</t>
+          <t>30,59</t>
         </is>
       </c>
       <c r="C17" s="11" t="inlineStr">
         <is>
-          <t>42,28</t>
+          <t>29,21</t>
         </is>
       </c>
       <c r="D17" s="21">
@@ -11785,12 +13609,12 @@
       </c>
       <c r="B18" s="31" t="inlineStr">
         <is>
-          <t>21,96</t>
+          <t>21,77</t>
         </is>
       </c>
       <c r="C18" s="31" t="inlineStr">
         <is>
-          <t>27,91</t>
+          <t>28,03</t>
         </is>
       </c>
       <c r="D18" s="32">
@@ -11806,12 +13630,12 @@
       </c>
       <c r="B19" s="28" t="inlineStr">
         <is>
-          <t>20,86</t>
+          <t>25,07</t>
         </is>
       </c>
       <c r="C19" s="28" t="inlineStr">
         <is>
-          <t>28,65</t>
+          <t>28,96</t>
         </is>
       </c>
       <c r="D19" s="33">
@@ -11827,12 +13651,12 @@
       </c>
       <c r="B20" s="11" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="C20" s="11" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="D20" s="34">
@@ -11848,12 +13672,12 @@
       </c>
       <c r="B21" s="11" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="C21" s="11" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="D21" s="34">
@@ -11946,12 +13770,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>87,53</t>
+          <t>76,06</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>278,15</t>
+          <t>269,63</t>
         </is>
       </c>
       <c r="D4" s="21">
@@ -11967,12 +13791,12 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>20,63</t>
+          <t>20,48</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>42,87</t>
+          <t>41,55</t>
         </is>
       </c>
       <c r="D5" s="21">
@@ -11988,12 +13812,12 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>4,28</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="D6" s="21">
@@ -12009,12 +13833,12 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="D7" s="21">
@@ -12030,7 +13854,7 @@
       </c>
       <c r="B8" s="31" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="C8" s="31" t="inlineStr">
@@ -12051,7 +13875,7 @@
       </c>
       <c r="B9" s="28" t="inlineStr">
         <is>
-          <t>766,26</t>
+          <t>1023,86</t>
         </is>
       </c>
       <c r="C9" s="28" t="inlineStr">
@@ -12072,12 +13896,12 @@
       </c>
       <c r="B10" s="11" t="inlineStr">
         <is>
-          <t>29,91</t>
+          <t>29,72</t>
         </is>
       </c>
       <c r="C10" s="11" t="inlineStr">
         <is>
-          <t>44,18</t>
+          <t>58,33</t>
         </is>
       </c>
       <c r="D10" s="21">
@@ -12093,12 +13917,12 @@
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
-          <t>10,77</t>
+          <t>10,69</t>
         </is>
       </c>
       <c r="C11" s="11" t="inlineStr">
         <is>
-          <t>14,16</t>
+          <t>13,72</t>
         </is>
       </c>
       <c r="D11" s="21">
@@ -12114,12 +13938,12 @@
       </c>
       <c r="B12" s="11" t="inlineStr">
         <is>
-          <t>29,91</t>
+          <t>29,72</t>
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr">
         <is>
-          <t>44,18</t>
+          <t>58,33</t>
         </is>
       </c>
       <c r="D12" s="21">
@@ -12135,12 +13959,12 @@
       </c>
       <c r="B13" s="11" t="inlineStr">
         <is>
-          <t>29,91</t>
+          <t>29,72</t>
         </is>
       </c>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>44,18</t>
+          <t>58,33</t>
         </is>
       </c>
       <c r="D13" s="21">
@@ -12156,12 +13980,12 @@
       </c>
       <c r="B14" s="11" t="inlineStr">
         <is>
-          <t>29,91</t>
+          <t>29,72</t>
         </is>
       </c>
       <c r="C14" s="11" t="inlineStr">
         <is>
-          <t>44,18</t>
+          <t>58,33</t>
         </is>
       </c>
       <c r="D14" s="21">
@@ -12177,12 +14001,12 @@
       </c>
       <c r="B15" s="11" t="inlineStr">
         <is>
-          <t>29,91</t>
+          <t>29,72</t>
         </is>
       </c>
       <c r="C15" s="11" t="inlineStr">
         <is>
-          <t>44,18</t>
+          <t>58,33</t>
         </is>
       </c>
       <c r="D15" s="21">
@@ -12198,12 +14022,12 @@
       </c>
       <c r="B16" s="11" t="inlineStr">
         <is>
-          <t>7,66</t>
+          <t>7,61</t>
         </is>
       </c>
       <c r="C16" s="11" t="inlineStr">
         <is>
-          <t>9,37</t>
+          <t>9,08</t>
         </is>
       </c>
       <c r="D16" s="21">
@@ -12219,12 +14043,12 @@
       </c>
       <c r="B17" s="11" t="inlineStr">
         <is>
-          <t>29,91</t>
+          <t>29,72</t>
         </is>
       </c>
       <c r="C17" s="11" t="inlineStr">
         <is>
-          <t>44,18</t>
+          <t>58,33</t>
         </is>
       </c>
       <c r="D17" s="21">
@@ -12240,12 +14064,12 @@
       </c>
       <c r="B18" s="31" t="inlineStr">
         <is>
-          <t>22,12</t>
+          <t>21,49</t>
         </is>
       </c>
       <c r="C18" s="31" t="inlineStr">
         <is>
-          <t>27,7</t>
+          <t>26,86</t>
         </is>
       </c>
       <c r="D18" s="32">
@@ -12261,12 +14085,12 @@
       </c>
       <c r="B19" s="28" t="inlineStr">
         <is>
-          <t>20,56</t>
+          <t>24,75</t>
         </is>
       </c>
       <c r="C19" s="28" t="inlineStr">
         <is>
-          <t>28,45</t>
+          <t>27,74</t>
         </is>
       </c>
       <c r="D19" s="33">
@@ -12282,12 +14106,12 @@
       </c>
       <c r="B20" s="11" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="C20" s="11" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="D20" s="34">
@@ -12303,12 +14127,12 @@
       </c>
       <c r="B21" s="11" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="C21" s="11" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="D21" s="34">
